--- a/computer.xlsx
+++ b/computer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arkan\Desktop\xls-m\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arkan\Desktop\HISTJ\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274EE41-2D7A-450E-82B0-39363035487F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C53A0FA-C31D-4254-89ED-7D2D959AB671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{01B7C1D7-3F21-4264-AB8A-227A0339DFE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{01B7C1D7-3F21-4264-AB8A-227A0339DFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="الاول حاسوب" sheetId="7" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="155">
   <si>
     <t>رقم تسلسل</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>CO242007</t>
+  </si>
+  <si>
+    <t>CO241008</t>
   </si>
 </sst>
 </file>
@@ -1586,13 +1589,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1604,29 +1628,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1637,8 +1667,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1649,40 +1685,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1691,29 +1703,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,24 +1730,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1751,12 +1739,27 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,18 +2128,18 @@
       <c r="Q5" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="144" t="s">
+      <c r="R5" s="87" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="98">
+      <c r="B6" s="88">
         <v>-1</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="94" t="s">
         <v>109</v>
       </c>
       <c r="E6" s="57" t="s">
@@ -2179,14 +2182,14 @@
         <v>2</v>
       </c>
       <c r="O6" s="60"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="90"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="5" t="s">
         <v>108</v>
       </c>
@@ -2216,14 +2219,14 @@
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="91"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="98"/>
     </row>
     <row r="8" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2253,14 +2256,14 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="16"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="91"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="98"/>
     </row>
     <row r="9" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="21" t="s">
         <v>4</v>
       </c>
@@ -2298,14 +2301,14 @@
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="91"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="98"/>
     </row>
     <row r="10" spans="2:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="12" t="s">
         <v>7</v>
       </c>
@@ -2349,18 +2352,18 @@
         <f>SUM(N10/N6)</f>
         <v>65</v>
       </c>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="92"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="99"/>
     </row>
     <row r="11" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="111">
+      <c r="B11" s="102">
         <v>-2</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="94" t="s">
         <v>110</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2403,14 +2406,14 @@
         <v>16</v>
       </c>
       <c r="O11" s="17"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="90"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="5" t="s">
         <v>108</v>
       </c>
@@ -2440,14 +2443,14 @@
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="18"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="91"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="98"/>
     </row>
     <row r="13" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2477,14 +2480,14 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="91"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="98"/>
     </row>
     <row r="14" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="21" t="s">
         <v>4</v>
       </c>
@@ -2522,14 +2525,14 @@
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="91"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="98"/>
     </row>
     <row r="15" spans="2:18" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="100"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="12" t="s">
         <v>7</v>
       </c>
@@ -2573,18 +2576,18 @@
         <f>SUM(N15/N11)</f>
         <v>25.5</v>
       </c>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="92"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="99"/>
     </row>
     <row r="16" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="99">
+      <c r="B16" s="89">
         <v>-3</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="94" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -2627,14 +2630,14 @@
         <v>0</v>
       </c>
       <c r="O16" s="60"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="90"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="97"/>
     </row>
     <row r="17" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="5" t="s">
         <v>108</v>
       </c>
@@ -2664,14 +2667,14 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="16"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="91"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="98"/>
     </row>
     <row r="18" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2701,14 +2704,14 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="91"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="98"/>
     </row>
     <row r="19" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="21" t="s">
         <v>4</v>
       </c>
@@ -2746,14 +2749,14 @@
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="91"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="98"/>
     </row>
     <row r="20" spans="2:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="112"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="89"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
@@ -2797,18 +2800,18 @@
         <f>SUM(N20/N16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="92"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="99"/>
     </row>
     <row r="21" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="113">
+      <c r="B21" s="103">
         <v>-4</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="94" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2851,14 +2854,14 @@
         <v>0</v>
       </c>
       <c r="O21" s="60"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="90"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="5" t="s">
         <v>108</v>
       </c>
@@ -2888,14 +2891,14 @@
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="91"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="98"/>
     </row>
     <row r="23" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="91"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="98"/>
     </row>
     <row r="24" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="21" t="s">
         <v>4</v>
       </c>
@@ -2970,14 +2973,14 @@
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="24"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="91"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="98"/>
     </row>
     <row r="25" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="112"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="89"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="8" t="s">
         <v>7</v>
       </c>
@@ -3021,18 +3024,18 @@
         <f>SUM(N25/N21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="92"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="99"/>
     </row>
     <row r="26" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="113">
+      <c r="B26" s="103">
         <v>-5</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="106" t="s">
         <v>113</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3075,14 +3078,14 @@
         <v>16</v>
       </c>
       <c r="O26" s="60"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="90"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="97"/>
     </row>
     <row r="27" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="2" t="s">
         <v>142</v>
       </c>
@@ -3112,14 +3115,14 @@
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="91"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="98"/>
     </row>
     <row r="28" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="99"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
@@ -3149,14 +3152,14 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="91"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="98"/>
     </row>
     <row r="29" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="99"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="21" t="s">
         <v>4</v>
       </c>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="24"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="91"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="98"/>
     </row>
     <row r="30" spans="2:18" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="112"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="89"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="8" t="s">
         <v>7</v>
       </c>
@@ -3245,18 +3248,18 @@
         <f>SUM(N30/N26)</f>
         <v>31.75</v>
       </c>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="92"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="99"/>
     </row>
     <row r="31" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="113">
+      <c r="B31" s="103">
         <v>-6</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="106" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3299,14 +3302,14 @@
         <v>16</v>
       </c>
       <c r="O31" s="60"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="90"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="97"/>
     </row>
     <row r="32" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="88"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="2" t="s">
         <v>142</v>
       </c>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="91"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="98"/>
     </row>
     <row r="33" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
@@ -3373,14 +3376,14 @@
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="91"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="98"/>
     </row>
     <row r="34" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="21" t="s">
         <v>4</v>
       </c>
@@ -3418,14 +3421,14 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="91"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="98"/>
     </row>
     <row r="35" spans="2:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="100"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="89"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="12" t="s">
         <v>7</v>
       </c>
@@ -3469,18 +3472,18 @@
         <f>SUM(N35/N31)</f>
         <v>22.375</v>
       </c>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="92"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="99"/>
     </row>
     <row r="36" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="99">
+      <c r="B36" s="89">
         <v>-7</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="106" t="s">
         <v>115</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -3523,14 +3526,14 @@
         <v>16</v>
       </c>
       <c r="O36" s="60"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="90"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="97"/>
     </row>
     <row r="37" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="88"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="2" t="s">
         <v>142</v>
       </c>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="91"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="98"/>
     </row>
     <row r="38" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="1" t="s">
         <v>3</v>
       </c>
@@ -3597,14 +3600,14 @@
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="91"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="98"/>
     </row>
     <row r="39" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="21" t="s">
         <v>4</v>
       </c>
@@ -3642,14 +3645,14 @@
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="24"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="91"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="98"/>
     </row>
     <row r="40" spans="2:18" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="108"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="89"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="66" t="s">
         <v>7</v>
       </c>
@@ -3693,18 +3696,18 @@
         <f>SUM(N40/N36)</f>
         <v>20.8125</v>
       </c>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="92"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="99"/>
     </row>
     <row r="41" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="99">
+      <c r="B41" s="89">
         <v>-8</v>
       </c>
-      <c r="C41" s="97" t="s">
+      <c r="C41" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="94" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="57" t="s">
@@ -3747,14 +3750,14 @@
         <v>16</v>
       </c>
       <c r="O41" s="60"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="90"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="97"/>
     </row>
     <row r="42" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="99"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="94"/>
       <c r="E42" s="5" t="s">
         <v>142</v>
       </c>
@@ -3784,14 +3787,14 @@
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="16"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="91"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="98"/>
     </row>
     <row r="43" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="99"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="88"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3821,14 +3824,14 @@
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="16"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="91"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="98"/>
     </row>
     <row r="44" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="99"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="21" t="s">
         <v>4</v>
       </c>
@@ -3866,14 +3869,14 @@
       </c>
       <c r="N44" s="23"/>
       <c r="O44" s="24"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="91"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="98"/>
     </row>
     <row r="45" spans="2:18" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="108"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="89"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="12" t="s">
         <v>7</v>
       </c>
@@ -3917,18 +3920,18 @@
         <f>SUM(N45/N41)</f>
         <v>15.3125</v>
       </c>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="92"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="99"/>
     </row>
     <row r="46" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="99">
+      <c r="B46" s="89">
         <v>-9</v>
       </c>
-      <c r="C46" s="94" t="s">
+      <c r="C46" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="88" t="s">
+      <c r="D46" s="94" t="s">
         <v>117</v>
       </c>
       <c r="E46" s="15" t="s">
@@ -3971,14 +3974,14 @@
         <v>16</v>
       </c>
       <c r="O46" s="60"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="90"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="97"/>
     </row>
     <row r="47" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="99"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="88"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="2" t="s">
         <v>142</v>
       </c>
@@ -4008,14 +4011,14 @@
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="16"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="91"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="98"/>
     </row>
     <row r="48" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="99"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
@@ -4043,14 +4046,14 @@
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="16"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="91"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="98"/>
     </row>
     <row r="49" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="99"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="21" t="s">
         <v>4</v>
       </c>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="N49" s="23"/>
       <c r="O49" s="24"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="91"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="98"/>
     </row>
     <row r="50" spans="2:18" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="108"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="89"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="95"/>
       <c r="E50" s="12" t="s">
         <v>7</v>
       </c>
@@ -4139,18 +4142,18 @@
         <f>SUM(N50/N46)</f>
         <v>30.375</v>
       </c>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="92"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="99"/>
     </row>
     <row r="51" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="99">
+      <c r="B51" s="89">
         <v>-10</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="94" t="s">
         <v>118</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -4193,14 +4196,14 @@
         <v>16</v>
       </c>
       <c r="O51" s="60"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="90"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="97"/>
     </row>
     <row r="52" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="99"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="94"/>
       <c r="E52" s="2" t="s">
         <v>142</v>
       </c>
@@ -4230,14 +4233,14 @@
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="16"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="91"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="98"/>
     </row>
     <row r="53" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="99"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="1" t="s">
         <v>3</v>
       </c>
@@ -4267,14 +4270,14 @@
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="91"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="98"/>
     </row>
     <row r="54" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="99"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="88"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="21" t="s">
         <v>4</v>
       </c>
@@ -4312,14 +4315,14 @@
       </c>
       <c r="N54" s="23"/>
       <c r="O54" s="24"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="91"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="98"/>
     </row>
     <row r="55" spans="2:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="108"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="89"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="8" t="s">
         <v>7</v>
       </c>
@@ -4363,18 +4366,18 @@
         <f>SUM(N55/N51)</f>
         <v>25.625</v>
       </c>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="92"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="99"/>
     </row>
     <row r="56" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="99">
+      <c r="B56" s="89">
         <v>-11</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="94" t="s">
         <v>119</v>
       </c>
       <c r="E56" s="10" t="s">
@@ -4417,14 +4420,14 @@
         <v>16</v>
       </c>
       <c r="O56" s="60"/>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="90"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="97"/>
     </row>
     <row r="57" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="99"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="88"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="94"/>
       <c r="E57" s="2" t="s">
         <v>142</v>
       </c>
@@ -4454,14 +4457,14 @@
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="16"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="91"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="98"/>
     </row>
     <row r="58" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="99"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="88"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="94"/>
       <c r="E58" s="1" t="s">
         <v>3</v>
       </c>
@@ -4491,14 +4494,14 @@
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="16"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="91"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="98"/>
     </row>
     <row r="59" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="99"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="88"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="94"/>
       <c r="E59" s="21" t="s">
         <v>4</v>
       </c>
@@ -4536,14 +4539,14 @@
       </c>
       <c r="N59" s="23"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="91"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="98"/>
     </row>
     <row r="60" spans="2:18" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="108"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="89"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="95"/>
       <c r="E60" s="8" t="s">
         <v>7</v>
       </c>
@@ -4587,18 +4590,18 @@
         <f>SUM(N60/N56)</f>
         <v>15.125</v>
       </c>
-      <c r="P60" s="89"/>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="93"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="95"/>
+      <c r="R60" s="109"/>
     </row>
     <row r="61" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="99">
+      <c r="B61" s="89">
         <v>-12</v>
       </c>
-      <c r="C61" s="109" t="s">
+      <c r="C61" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="104" t="s">
+      <c r="D61" s="106" t="s">
         <v>120</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -4641,14 +4644,14 @@
         <v>16</v>
       </c>
       <c r="O61" s="17"/>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="115"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="114"/>
     </row>
     <row r="62" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="99"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="88"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="94"/>
       <c r="E62" s="2" t="s">
         <v>142</v>
       </c>
@@ -4678,14 +4681,14 @@
       </c>
       <c r="N62" s="7"/>
       <c r="O62" s="18"/>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="115"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="114"/>
     </row>
     <row r="63" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="99"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="88"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
       <c r="E63" s="1" t="s">
         <v>3</v>
       </c>
@@ -4715,14 +4718,14 @@
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="115"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="111"/>
+      <c r="R63" s="114"/>
     </row>
     <row r="64" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="99"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="88"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="94"/>
       <c r="E64" s="21" t="s">
         <v>4</v>
       </c>
@@ -4760,14 +4763,14 @@
       </c>
       <c r="N64" s="23"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="115"/>
+      <c r="P64" s="111"/>
+      <c r="Q64" s="111"/>
+      <c r="R64" s="114"/>
     </row>
     <row r="65" spans="2:18" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="108"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="89"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="95"/>
       <c r="E65" s="8" t="s">
         <v>7</v>
       </c>
@@ -4811,18 +4814,18 @@
         <f>SUM(N65/N61)</f>
         <v>24.875</v>
       </c>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="103"/>
-      <c r="R65" s="116"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="112"/>
+      <c r="R65" s="115"/>
     </row>
     <row r="66" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="99">
+      <c r="B66" s="89">
         <v>-13</v>
       </c>
-      <c r="C66" s="109" t="s">
+      <c r="C66" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="104" t="s">
+      <c r="D66" s="106" t="s">
         <v>121</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -4865,14 +4868,14 @@
         <v>16</v>
       </c>
       <c r="O66" s="17"/>
-      <c r="P66" s="101"/>
-      <c r="Q66" s="101"/>
-      <c r="R66" s="117"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="113"/>
     </row>
     <row r="67" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="99"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="88"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="94"/>
       <c r="E67" s="2" t="s">
         <v>142</v>
       </c>
@@ -4902,14 +4905,14 @@
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="18"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="115"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="114"/>
     </row>
     <row r="68" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="99"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="88"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="94"/>
       <c r="E68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4939,14 +4942,14 @@
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="16"/>
-      <c r="P68" s="102"/>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="115"/>
+      <c r="P68" s="111"/>
+      <c r="Q68" s="111"/>
+      <c r="R68" s="114"/>
     </row>
     <row r="69" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="99"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="88"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="94"/>
       <c r="E69" s="21" t="s">
         <v>4</v>
       </c>
@@ -4984,14 +4987,14 @@
       </c>
       <c r="N69" s="23"/>
       <c r="O69" s="24"/>
-      <c r="P69" s="102"/>
-      <c r="Q69" s="102"/>
-      <c r="R69" s="115"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="111"/>
+      <c r="R69" s="114"/>
     </row>
     <row r="70" spans="2:18" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="108"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="89"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="95"/>
       <c r="E70" s="12" t="s">
         <v>7</v>
       </c>
@@ -5035,18 +5038,18 @@
         <f>SUM(N70/N66)</f>
         <v>26.3125</v>
       </c>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
-      <c r="R70" s="116"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="112"/>
+      <c r="R70" s="115"/>
     </row>
     <row r="71" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="99">
+      <c r="B71" s="89">
         <v>-14</v>
       </c>
-      <c r="C71" s="109" t="s">
+      <c r="C71" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="104" t="s">
+      <c r="D71" s="106" t="s">
         <v>122</v>
       </c>
       <c r="E71" s="10" t="s">
@@ -5089,14 +5092,14 @@
         <v>16</v>
       </c>
       <c r="O71" s="17"/>
-      <c r="P71" s="101"/>
-      <c r="Q71" s="101"/>
-      <c r="R71" s="117"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="113"/>
     </row>
     <row r="72" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="99"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="88"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="94"/>
       <c r="E72" s="2" t="s">
         <v>142</v>
       </c>
@@ -5126,14 +5129,14 @@
       </c>
       <c r="N72" s="7"/>
       <c r="O72" s="18"/>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="102"/>
-      <c r="R72" s="115"/>
+      <c r="P72" s="111"/>
+      <c r="Q72" s="111"/>
+      <c r="R72" s="114"/>
     </row>
     <row r="73" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="99"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="88"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="94"/>
       <c r="E73" s="1" t="s">
         <v>3</v>
       </c>
@@ -5163,14 +5166,14 @@
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="16"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="115"/>
+      <c r="P73" s="111"/>
+      <c r="Q73" s="111"/>
+      <c r="R73" s="114"/>
     </row>
     <row r="74" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="99"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="88"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="94"/>
       <c r="E74" s="21" t="s">
         <v>4</v>
       </c>
@@ -5208,14 +5211,14 @@
       </c>
       <c r="N74" s="23"/>
       <c r="O74" s="24"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="115"/>
+      <c r="P74" s="111"/>
+      <c r="Q74" s="111"/>
+      <c r="R74" s="114"/>
     </row>
     <row r="75" spans="2:18" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="108"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="89"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="95"/>
       <c r="E75" s="66" t="s">
         <v>7</v>
       </c>
@@ -5259,18 +5262,18 @@
         <f>SUM(N75/N71)</f>
         <v>14.4375</v>
       </c>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="103"/>
-      <c r="R75" s="118"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="112"/>
+      <c r="R75" s="119"/>
     </row>
     <row r="76" spans="2:18" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="99">
+      <c r="B76" s="89">
         <v>-15</v>
       </c>
-      <c r="C76" s="97" t="s">
+      <c r="C76" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="88" t="s">
+      <c r="D76" s="94" t="s">
         <v>123</v>
       </c>
       <c r="E76" s="57" t="s">
@@ -5313,14 +5316,14 @@
         <v>16</v>
       </c>
       <c r="O76" s="60"/>
-      <c r="P76" s="105"/>
-      <c r="Q76" s="105"/>
-      <c r="R76" s="117"/>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="116"/>
+      <c r="R76" s="113"/>
     </row>
     <row r="77" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="99"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="88"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="94"/>
       <c r="E77" s="5" t="s">
         <v>108</v>
       </c>
@@ -5350,14 +5353,14 @@
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="16"/>
-      <c r="P77" s="106"/>
-      <c r="Q77" s="106"/>
-      <c r="R77" s="115"/>
+      <c r="P77" s="117"/>
+      <c r="Q77" s="117"/>
+      <c r="R77" s="114"/>
     </row>
     <row r="78" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="99"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="88"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="94"/>
       <c r="E78" s="1" t="s">
         <v>3</v>
       </c>
@@ -5387,14 +5390,14 @@
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="16"/>
-      <c r="P78" s="106"/>
-      <c r="Q78" s="106"/>
-      <c r="R78" s="115"/>
+      <c r="P78" s="117"/>
+      <c r="Q78" s="117"/>
+      <c r="R78" s="114"/>
     </row>
     <row r="79" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="99"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="88"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="94"/>
       <c r="E79" s="21" t="s">
         <v>4</v>
       </c>
@@ -5432,14 +5435,14 @@
       </c>
       <c r="N79" s="23"/>
       <c r="O79" s="24"/>
-      <c r="P79" s="106"/>
-      <c r="Q79" s="106"/>
-      <c r="R79" s="115"/>
+      <c r="P79" s="117"/>
+      <c r="Q79" s="117"/>
+      <c r="R79" s="114"/>
     </row>
     <row r="80" spans="2:18" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="108"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="89"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="95"/>
       <c r="E80" s="12" t="s">
         <v>7</v>
       </c>
@@ -5483,18 +5486,18 @@
         <f>SUM(N80/N76)</f>
         <v>15.5625</v>
       </c>
-      <c r="P80" s="107"/>
-      <c r="Q80" s="107"/>
-      <c r="R80" s="116"/>
+      <c r="P80" s="118"/>
+      <c r="Q80" s="118"/>
+      <c r="R80" s="115"/>
     </row>
     <row r="81" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="99">
+      <c r="B81" s="89">
         <v>-16</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="88" t="s">
+      <c r="D81" s="94" t="s">
         <v>124</v>
       </c>
       <c r="E81" s="15" t="s">
@@ -5537,14 +5540,14 @@
         <v>16</v>
       </c>
       <c r="O81" s="17"/>
-      <c r="P81" s="101"/>
-      <c r="Q81" s="101"/>
-      <c r="R81" s="117"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
+      <c r="R81" s="113"/>
     </row>
     <row r="82" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="99"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="88"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="94"/>
       <c r="E82" s="2" t="s">
         <v>142</v>
       </c>
@@ -5574,14 +5577,14 @@
       </c>
       <c r="N82" s="7"/>
       <c r="O82" s="18"/>
-      <c r="P82" s="102"/>
-      <c r="Q82" s="102"/>
-      <c r="R82" s="115"/>
+      <c r="P82" s="111"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="114"/>
     </row>
     <row r="83" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="99"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="88"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="94"/>
       <c r="E83" s="1" t="s">
         <v>3</v>
       </c>
@@ -5611,14 +5614,14 @@
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="16"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="102"/>
-      <c r="R83" s="115"/>
+      <c r="P83" s="111"/>
+      <c r="Q83" s="111"/>
+      <c r="R83" s="114"/>
     </row>
     <row r="84" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="99"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="88"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="94"/>
       <c r="E84" s="21" t="s">
         <v>4</v>
       </c>
@@ -5656,14 +5659,14 @@
       </c>
       <c r="N84" s="23"/>
       <c r="O84" s="24"/>
-      <c r="P84" s="102"/>
-      <c r="Q84" s="102"/>
-      <c r="R84" s="115"/>
+      <c r="P84" s="111"/>
+      <c r="Q84" s="111"/>
+      <c r="R84" s="114"/>
     </row>
     <row r="85" spans="2:18" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="108"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="89"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="95"/>
       <c r="E85" s="12" t="s">
         <v>7</v>
       </c>
@@ -5707,18 +5710,18 @@
         <f>SUM(N85/N81)</f>
         <v>16.9375</v>
       </c>
-      <c r="P85" s="103"/>
-      <c r="Q85" s="103"/>
-      <c r="R85" s="116"/>
+      <c r="P85" s="112"/>
+      <c r="Q85" s="112"/>
+      <c r="R85" s="115"/>
     </row>
     <row r="86" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="99">
+      <c r="B86" s="89">
         <v>-17</v>
       </c>
-      <c r="C86" s="95" t="s">
+      <c r="C86" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="D86" s="88" t="s">
+      <c r="D86" s="94" t="s">
         <v>125</v>
       </c>
       <c r="E86" s="15" t="s">
@@ -5761,14 +5764,14 @@
         <v>16</v>
       </c>
       <c r="O86" s="17"/>
-      <c r="P86" s="101"/>
-      <c r="Q86" s="101"/>
-      <c r="R86" s="117"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
+      <c r="R86" s="113"/>
     </row>
     <row r="87" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="99"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="88"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="94"/>
       <c r="E87" s="2" t="s">
         <v>142</v>
       </c>
@@ -5798,14 +5801,14 @@
       </c>
       <c r="N87" s="7"/>
       <c r="O87" s="18"/>
-      <c r="P87" s="102"/>
-      <c r="Q87" s="102"/>
-      <c r="R87" s="115"/>
+      <c r="P87" s="111"/>
+      <c r="Q87" s="111"/>
+      <c r="R87" s="114"/>
     </row>
     <row r="88" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="99"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="88"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="94"/>
       <c r="E88" s="1" t="s">
         <v>3</v>
       </c>
@@ -5835,14 +5838,14 @@
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="16"/>
-      <c r="P88" s="102"/>
-      <c r="Q88" s="102"/>
-      <c r="R88" s="115"/>
+      <c r="P88" s="111"/>
+      <c r="Q88" s="111"/>
+      <c r="R88" s="114"/>
     </row>
     <row r="89" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="99"/>
-      <c r="C89" s="95"/>
-      <c r="D89" s="88"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="94"/>
       <c r="E89" s="21" t="s">
         <v>4</v>
       </c>
@@ -5880,14 +5883,14 @@
       </c>
       <c r="N89" s="23"/>
       <c r="O89" s="24"/>
-      <c r="P89" s="102"/>
-      <c r="Q89" s="102"/>
-      <c r="R89" s="115"/>
+      <c r="P89" s="111"/>
+      <c r="Q89" s="111"/>
+      <c r="R89" s="114"/>
     </row>
     <row r="90" spans="2:18" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="108"/>
-      <c r="C90" s="110"/>
-      <c r="D90" s="89"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="95"/>
       <c r="E90" s="8" t="s">
         <v>7</v>
       </c>
@@ -5931,18 +5934,18 @@
         <f>SUM(N90/N86)</f>
         <v>31.5</v>
       </c>
-      <c r="P90" s="103"/>
-      <c r="Q90" s="103"/>
-      <c r="R90" s="116"/>
+      <c r="P90" s="112"/>
+      <c r="Q90" s="112"/>
+      <c r="R90" s="115"/>
     </row>
     <row r="91" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="99">
+      <c r="B91" s="89">
         <v>-18</v>
       </c>
-      <c r="C91" s="109" t="s">
+      <c r="C91" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="88" t="s">
+      <c r="D91" s="94" t="s">
         <v>126</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -5985,14 +5988,14 @@
         <v>0</v>
       </c>
       <c r="O91" s="17"/>
-      <c r="P91" s="101"/>
-      <c r="Q91" s="101"/>
-      <c r="R91" s="117"/>
+      <c r="P91" s="110"/>
+      <c r="Q91" s="110"/>
+      <c r="R91" s="113"/>
     </row>
     <row r="92" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="99"/>
-      <c r="C92" s="95"/>
-      <c r="D92" s="88"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="94"/>
       <c r="E92" s="2" t="s">
         <v>142</v>
       </c>
@@ -6022,14 +6025,14 @@
       </c>
       <c r="N92" s="7"/>
       <c r="O92" s="18"/>
-      <c r="P92" s="102"/>
-      <c r="Q92" s="102"/>
-      <c r="R92" s="115"/>
+      <c r="P92" s="111"/>
+      <c r="Q92" s="111"/>
+      <c r="R92" s="114"/>
     </row>
     <row r="93" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="99"/>
-      <c r="C93" s="95"/>
-      <c r="D93" s="88"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="94"/>
       <c r="E93" s="1" t="s">
         <v>3</v>
       </c>
@@ -6059,14 +6062,14 @@
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="16"/>
-      <c r="P93" s="102"/>
-      <c r="Q93" s="102"/>
-      <c r="R93" s="115"/>
+      <c r="P93" s="111"/>
+      <c r="Q93" s="111"/>
+      <c r="R93" s="114"/>
     </row>
     <row r="94" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="99"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="88"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="94"/>
       <c r="E94" s="21" t="s">
         <v>4</v>
       </c>
@@ -6104,14 +6107,14 @@
       </c>
       <c r="N94" s="23"/>
       <c r="O94" s="24"/>
-      <c r="P94" s="102"/>
-      <c r="Q94" s="102"/>
-      <c r="R94" s="115"/>
+      <c r="P94" s="111"/>
+      <c r="Q94" s="111"/>
+      <c r="R94" s="114"/>
     </row>
     <row r="95" spans="2:18" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="108"/>
-      <c r="C95" s="110"/>
-      <c r="D95" s="89"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="95"/>
       <c r="E95" s="8" t="s">
         <v>7</v>
       </c>
@@ -6155,18 +6158,18 @@
         <f>SUM(N95/N91)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P95" s="103"/>
-      <c r="Q95" s="103"/>
-      <c r="R95" s="116"/>
+      <c r="P95" s="112"/>
+      <c r="Q95" s="112"/>
+      <c r="R95" s="115"/>
     </row>
     <row r="96" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="99">
+      <c r="B96" s="89">
         <v>-19</v>
       </c>
-      <c r="C96" s="109" t="s">
+      <c r="C96" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="104" t="s">
+      <c r="D96" s="106" t="s">
         <v>127</v>
       </c>
       <c r="E96" s="10" t="s">
@@ -6209,14 +6212,14 @@
         <v>16</v>
       </c>
       <c r="O96" s="17"/>
-      <c r="P96" s="101"/>
-      <c r="Q96" s="101"/>
-      <c r="R96" s="117"/>
+      <c r="P96" s="110"/>
+      <c r="Q96" s="110"/>
+      <c r="R96" s="113"/>
     </row>
     <row r="97" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="99"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="88"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="94"/>
       <c r="E97" s="2" t="s">
         <v>142</v>
       </c>
@@ -6246,14 +6249,14 @@
       </c>
       <c r="N97" s="7"/>
       <c r="O97" s="18"/>
-      <c r="P97" s="102"/>
-      <c r="Q97" s="102"/>
-      <c r="R97" s="115"/>
+      <c r="P97" s="111"/>
+      <c r="Q97" s="111"/>
+      <c r="R97" s="114"/>
     </row>
     <row r="98" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="99"/>
-      <c r="C98" s="95"/>
-      <c r="D98" s="88"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="94"/>
       <c r="E98" s="1" t="s">
         <v>3</v>
       </c>
@@ -6283,14 +6286,14 @@
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="16"/>
-      <c r="P98" s="102"/>
-      <c r="Q98" s="102"/>
-      <c r="R98" s="115"/>
+      <c r="P98" s="111"/>
+      <c r="Q98" s="111"/>
+      <c r="R98" s="114"/>
     </row>
     <row r="99" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="99"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="88"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="94"/>
       <c r="E99" s="21" t="s">
         <v>4</v>
       </c>
@@ -6328,14 +6331,14 @@
       </c>
       <c r="N99" s="23"/>
       <c r="O99" s="24"/>
-      <c r="P99" s="102"/>
-      <c r="Q99" s="102"/>
-      <c r="R99" s="115"/>
+      <c r="P99" s="111"/>
+      <c r="Q99" s="111"/>
+      <c r="R99" s="114"/>
     </row>
     <row r="100" spans="2:18" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="108"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="89"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="95"/>
       <c r="E100" s="8" t="s">
         <v>7</v>
       </c>
@@ -6379,18 +6382,18 @@
         <f>SUM(N100/N96)</f>
         <v>28.25</v>
       </c>
-      <c r="P100" s="103"/>
-      <c r="Q100" s="103"/>
-      <c r="R100" s="116"/>
+      <c r="P100" s="112"/>
+      <c r="Q100" s="112"/>
+      <c r="R100" s="115"/>
     </row>
     <row r="101" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="99">
+      <c r="B101" s="89">
         <v>-20</v>
       </c>
-      <c r="C101" s="109" t="s">
+      <c r="C101" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D101" s="104" t="s">
+      <c r="D101" s="106" t="s">
         <v>128</v>
       </c>
       <c r="E101" s="10" t="s">
@@ -6433,14 +6436,14 @@
         <v>0</v>
       </c>
       <c r="O101" s="17"/>
-      <c r="P101" s="101"/>
-      <c r="Q101" s="101"/>
-      <c r="R101" s="117"/>
+      <c r="P101" s="110"/>
+      <c r="Q101" s="110"/>
+      <c r="R101" s="113"/>
     </row>
     <row r="102" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="99"/>
-      <c r="C102" s="95"/>
-      <c r="D102" s="88"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="94"/>
       <c r="E102" s="2" t="s">
         <v>142</v>
       </c>
@@ -6470,14 +6473,14 @@
       </c>
       <c r="N102" s="7"/>
       <c r="O102" s="18"/>
-      <c r="P102" s="102"/>
-      <c r="Q102" s="102"/>
-      <c r="R102" s="115"/>
+      <c r="P102" s="111"/>
+      <c r="Q102" s="111"/>
+      <c r="R102" s="114"/>
     </row>
     <row r="103" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="99"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="88"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="94"/>
       <c r="E103" s="1" t="s">
         <v>3</v>
       </c>
@@ -6507,14 +6510,14 @@
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="16"/>
-      <c r="P103" s="102"/>
-      <c r="Q103" s="102"/>
-      <c r="R103" s="115"/>
+      <c r="P103" s="111"/>
+      <c r="Q103" s="111"/>
+      <c r="R103" s="114"/>
     </row>
     <row r="104" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="99"/>
-      <c r="C104" s="95"/>
-      <c r="D104" s="88"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="94"/>
       <c r="E104" s="21" t="s">
         <v>4</v>
       </c>
@@ -6552,14 +6555,14 @@
       </c>
       <c r="N104" s="23"/>
       <c r="O104" s="24"/>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="102"/>
-      <c r="R104" s="115"/>
+      <c r="P104" s="111"/>
+      <c r="Q104" s="111"/>
+      <c r="R104" s="114"/>
     </row>
     <row r="105" spans="2:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="108"/>
-      <c r="C105" s="95"/>
-      <c r="D105" s="89"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="95"/>
       <c r="E105" s="12" t="s">
         <v>7</v>
       </c>
@@ -6603,18 +6606,18 @@
         <f>SUM(N105/N101)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P105" s="103"/>
-      <c r="Q105" s="103"/>
-      <c r="R105" s="116"/>
+      <c r="P105" s="112"/>
+      <c r="Q105" s="112"/>
+      <c r="R105" s="115"/>
     </row>
     <row r="106" spans="2:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="99">
+      <c r="B106" s="89">
         <v>-21</v>
       </c>
-      <c r="C106" s="94" t="s">
+      <c r="C106" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="104" t="s">
+      <c r="D106" s="106" t="s">
         <v>129</v>
       </c>
       <c r="E106" s="10" t="s">
@@ -6657,14 +6660,14 @@
         <v>5</v>
       </c>
       <c r="O106" s="17"/>
-      <c r="P106" s="101"/>
-      <c r="Q106" s="101"/>
-      <c r="R106" s="117"/>
+      <c r="P106" s="110"/>
+      <c r="Q106" s="110"/>
+      <c r="R106" s="113"/>
     </row>
     <row r="107" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="99"/>
-      <c r="C107" s="95"/>
-      <c r="D107" s="88"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="94"/>
       <c r="E107" s="2" t="s">
         <v>142</v>
       </c>
@@ -6694,14 +6697,14 @@
       </c>
       <c r="N107" s="7"/>
       <c r="O107" s="18"/>
-      <c r="P107" s="102"/>
-      <c r="Q107" s="102"/>
-      <c r="R107" s="115"/>
+      <c r="P107" s="111"/>
+      <c r="Q107" s="111"/>
+      <c r="R107" s="114"/>
     </row>
     <row r="108" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="99"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="88"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="94"/>
       <c r="E108" s="1" t="s">
         <v>3</v>
       </c>
@@ -6731,14 +6734,14 @@
       </c>
       <c r="N108" s="4"/>
       <c r="O108" s="16"/>
-      <c r="P108" s="102"/>
-      <c r="Q108" s="102"/>
-      <c r="R108" s="115"/>
+      <c r="P108" s="111"/>
+      <c r="Q108" s="111"/>
+      <c r="R108" s="114"/>
     </row>
     <row r="109" spans="2:18" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="99"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="88"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="94"/>
       <c r="E109" s="21" t="s">
         <v>4</v>
       </c>
@@ -6776,14 +6779,14 @@
       </c>
       <c r="N109" s="23"/>
       <c r="O109" s="24"/>
-      <c r="P109" s="102"/>
-      <c r="Q109" s="102"/>
-      <c r="R109" s="115"/>
+      <c r="P109" s="111"/>
+      <c r="Q109" s="111"/>
+      <c r="R109" s="114"/>
     </row>
     <row r="110" spans="2:18" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="108"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="89"/>
+      <c r="B110" s="107"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="95"/>
       <c r="E110" s="66" t="s">
         <v>7</v>
       </c>
@@ -6827,9 +6830,9 @@
         <f>SUM(N110/N106)</f>
         <v>29.8</v>
       </c>
-      <c r="P110" s="103"/>
-      <c r="Q110" s="103"/>
-      <c r="R110" s="116"/>
+      <c r="P110" s="112"/>
+      <c r="Q110" s="112"/>
+      <c r="R110" s="115"/>
     </row>
     <row r="111" spans="2:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -6942,6 +6945,12 @@
     <mergeCell ref="P21:P25"/>
     <mergeCell ref="Q21:Q25"/>
     <mergeCell ref="R21:R25"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="P6:P10"/>
+    <mergeCell ref="Q6:Q10"/>
+    <mergeCell ref="R6:R10"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="D16:D20"/>
@@ -6954,12 +6963,6 @@
     <mergeCell ref="P11:P15"/>
     <mergeCell ref="Q11:Q15"/>
     <mergeCell ref="R11:R15"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="P6:P10"/>
-    <mergeCell ref="Q6:Q10"/>
-    <mergeCell ref="R6:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6970,7 +6973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F29A2D-8C0D-41A8-861A-6FB9CF7B4901}">
   <dimension ref="B4:X72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
@@ -6983,53 +6986,53 @@
   <sheetData>
     <row r="4" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="139" t="s">
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="128" t="s">
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="128" t="s">
+      <c r="U5" s="120" t="s">
         <v>9</v>
       </c>
       <c r="V5" s="27"/>
-      <c r="W5" s="128" t="s">
+      <c r="W5" s="120" t="s">
         <v>42</v>
       </c>
       <c r="X5" s="28"/>
     </row>
     <row r="6" spans="2:24" ht="120.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="134"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="25" t="s">
         <v>10</v>
       </c>
@@ -7072,24 +7075,24 @@
       <c r="S6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
       <c r="V6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="129"/>
+      <c r="W6" s="121"/>
       <c r="X6" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="126">
+      <c r="B7" s="122">
         <v>-1</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="94" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -7156,14 +7159,14 @@
         <v>14</v>
       </c>
       <c r="U7" s="39"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="124"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="137"/>
     </row>
     <row r="8" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="29" t="s">
         <v>142</v>
       </c>
@@ -7211,14 +7214,14 @@
       </c>
       <c r="T8" s="42"/>
       <c r="U8" s="43"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="115"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="30" t="s">
         <v>3</v>
       </c>
@@ -7266,14 +7269,14 @@
       </c>
       <c r="T9" s="46"/>
       <c r="U9" s="47"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="115"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="114"/>
     </row>
     <row r="10" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="88"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="31" t="s">
         <v>4</v>
       </c>
@@ -7335,14 +7338,14 @@
       </c>
       <c r="T10" s="46"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="115"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="114"/>
     </row>
     <row r="11" spans="2:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="32" t="s">
         <v>7</v>
       </c>
@@ -7410,18 +7413,18 @@
         <f>SUM(T11/T7)</f>
         <v>21.714285714285715</v>
       </c>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="116"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="115"/>
     </row>
     <row r="12" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="119">
+      <c r="B12" s="138">
         <v>-2</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="94" t="s">
         <v>138</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -7488,14 +7491,14 @@
         <v>17</v>
       </c>
       <c r="U12" s="39"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="124"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="137"/>
     </row>
     <row r="13" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="120"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="88"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="33" t="s">
         <v>142</v>
       </c>
@@ -7543,14 +7546,14 @@
       </c>
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="115"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="114"/>
     </row>
     <row r="14" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="120"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
@@ -7598,14 +7601,14 @@
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="115"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="114"/>
     </row>
     <row r="15" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="31" t="s">
         <v>4</v>
       </c>
@@ -7667,14 +7670,14 @@
       </c>
       <c r="T15" s="46"/>
       <c r="U15" s="47"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="115"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="114"/>
     </row>
     <row r="16" spans="2:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="127"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="34" t="s">
         <v>7</v>
       </c>
@@ -7742,18 +7745,18 @@
         <f>SUM(T16/T12)</f>
         <v>28.235294117647058</v>
       </c>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="116"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="115"/>
     </row>
     <row r="17" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="120">
+      <c r="B17" s="123">
         <v>-3</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="94" t="s">
         <v>139</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -7820,14 +7823,14 @@
         <v>17</v>
       </c>
       <c r="U17" s="39"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="124"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="137"/>
     </row>
     <row r="18" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="33" t="s">
         <v>142</v>
       </c>
@@ -7875,14 +7878,14 @@
       </c>
       <c r="T18" s="42"/>
       <c r="U18" s="43"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="115"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="114"/>
     </row>
     <row r="19" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="30" t="s">
         <v>3</v>
       </c>
@@ -7930,14 +7933,14 @@
       </c>
       <c r="T19" s="46"/>
       <c r="U19" s="47"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="115"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="114"/>
     </row>
     <row r="20" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="88"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="31" t="s">
         <v>4</v>
       </c>
@@ -7999,14 +8002,14 @@
       </c>
       <c r="T20" s="46"/>
       <c r="U20" s="47"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="115"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="114"/>
     </row>
     <row r="21" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="125"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="89"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="35" t="s">
         <v>7</v>
       </c>
@@ -8074,18 +8077,18 @@
         <f>SUM(T21/T17)</f>
         <v>31.529411764705884</v>
       </c>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="116"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="115"/>
     </row>
     <row r="22" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="122">
+      <c r="B22" s="141">
         <v>-4</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="94" t="s">
         <v>140</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -8152,14 +8155,14 @@
         <v>17</v>
       </c>
       <c r="U22" s="39"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="124"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="137"/>
     </row>
     <row r="23" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="33" t="s">
         <v>142</v>
       </c>
@@ -8207,14 +8210,14 @@
       </c>
       <c r="T23" s="42"/>
       <c r="U23" s="43"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="115"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="114"/>
     </row>
     <row r="24" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="30" t="s">
         <v>3</v>
       </c>
@@ -8262,14 +8265,14 @@
       </c>
       <c r="T24" s="46"/>
       <c r="U24" s="47"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="115"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="114"/>
     </row>
     <row r="25" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="31" t="s">
         <v>4</v>
       </c>
@@ -8331,14 +8334,14 @@
       </c>
       <c r="T25" s="46"/>
       <c r="U25" s="47"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="115"/>
-    </row>
-    <row r="26" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="125"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="89"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="114"/>
+    </row>
+    <row r="26" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="140"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="35" t="s">
         <v>7</v>
       </c>
@@ -8406,18 +8409,18 @@
         <f>SUM(T26/T22)</f>
         <v>34.647058823529413</v>
       </c>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="116"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="115"/>
     </row>
     <row r="27" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="122">
+      <c r="B27" s="141">
         <v>-5</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="106" t="s">
         <v>141</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -8484,14 +8487,14 @@
         <v>8</v>
       </c>
       <c r="U27" s="39"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="124"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="137"/>
     </row>
     <row r="28" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="120"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="88"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="33" t="s">
         <v>142</v>
       </c>
@@ -8539,14 +8542,14 @@
       </c>
       <c r="T28" s="42"/>
       <c r="U28" s="43"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="115"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="114"/>
     </row>
     <row r="29" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="120"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="88"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
@@ -8594,14 +8597,14 @@
       </c>
       <c r="T29" s="46"/>
       <c r="U29" s="47"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="115"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="114"/>
     </row>
     <row r="30" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="120"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="88"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="31" t="s">
         <v>4</v>
       </c>
@@ -8663,14 +8666,14 @@
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="115"/>
-    </row>
-    <row r="31" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="89"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="114"/>
+    </row>
+    <row r="31" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="124"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="32" t="s">
         <v>7</v>
       </c>
@@ -8738,16 +8741,16 @@
         <f>SUM(T31/T27)</f>
         <v>34</v>
       </c>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="116"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="115"/>
     </row>
     <row r="32" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="119">
+      <c r="B32" s="138">
         <v>-6</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="87"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="10" t="s">
         <v>6</v>
       </c>
@@ -8812,14 +8815,14 @@
         <v>0</v>
       </c>
       <c r="U32" s="39"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="124"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="137"/>
     </row>
     <row r="33" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="120"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="33" t="s">
         <v>142</v>
       </c>
@@ -8867,14 +8870,14 @@
       </c>
       <c r="T33" s="42"/>
       <c r="U33" s="43"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="115"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="114"/>
     </row>
     <row r="34" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="88"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="30" t="s">
         <v>3</v>
       </c>
@@ -8922,14 +8925,14 @@
       </c>
       <c r="T34" s="46"/>
       <c r="U34" s="47"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="115"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="114"/>
     </row>
     <row r="35" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="120"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="88"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="31" t="s">
         <v>4</v>
       </c>
@@ -8991,14 +8994,14 @@
       </c>
       <c r="T35" s="46"/>
       <c r="U35" s="47"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="115"/>
-    </row>
-    <row r="36" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="121"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="89"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="114"/>
+    </row>
+    <row r="36" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="124"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="32" t="s">
         <v>7</v>
       </c>
@@ -9066,16 +9069,16 @@
         <f>SUM(T36/T32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="116"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="115"/>
     </row>
     <row r="37" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="119">
+      <c r="B37" s="138">
         <v>-7</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="87"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="10" t="s">
         <v>6</v>
       </c>
@@ -9140,14 +9143,14 @@
         <v>0</v>
       </c>
       <c r="U37" s="39"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="124"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="137"/>
     </row>
     <row r="38" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="120"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="88"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="33" t="s">
         <v>142</v>
       </c>
@@ -9195,14 +9198,14 @@
       </c>
       <c r="T38" s="42"/>
       <c r="U38" s="43"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="115"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="114"/>
     </row>
     <row r="39" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="120"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="30" t="s">
         <v>3</v>
       </c>
@@ -9250,14 +9253,14 @@
       </c>
       <c r="T39" s="46"/>
       <c r="U39" s="47"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="115"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="114"/>
     </row>
     <row r="40" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="120"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="88"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="31" t="s">
         <v>4</v>
       </c>
@@ -9319,14 +9322,14 @@
       </c>
       <c r="T40" s="46"/>
       <c r="U40" s="47"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="115"/>
-    </row>
-    <row r="41" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="121"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="89"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="114"/>
+    </row>
+    <row r="41" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="124"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="32" t="s">
         <v>7</v>
       </c>
@@ -9394,16 +9397,16 @@
         <f>SUM(T41/T37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="116"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="115"/>
     </row>
     <row r="42" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="123">
+      <c r="B42" s="142">
         <v>-8</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="87"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="37" t="s">
         <v>6</v>
       </c>
@@ -9468,14 +9471,14 @@
         <v>0</v>
       </c>
       <c r="U42" s="39"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="124"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="137"/>
     </row>
     <row r="43" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="99"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="88"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="40" t="s">
         <v>142</v>
       </c>
@@ -9523,14 +9526,14 @@
       </c>
       <c r="T43" s="42"/>
       <c r="U43" s="43"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="115"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="114"/>
     </row>
     <row r="44" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="99"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="44" t="s">
         <v>3</v>
       </c>
@@ -9578,14 +9581,14 @@
       </c>
       <c r="T44" s="46"/>
       <c r="U44" s="47"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="115"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="114"/>
     </row>
     <row r="45" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="99"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="48" t="s">
         <v>4</v>
       </c>
@@ -9647,14 +9650,14 @@
       </c>
       <c r="T45" s="46"/>
       <c r="U45" s="47"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="115"/>
-    </row>
-    <row r="46" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="112"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="89"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="114"/>
+    </row>
+    <row r="46" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="100"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="95"/>
       <c r="E46" s="49" t="s">
         <v>7</v>
       </c>
@@ -9722,16 +9725,16 @@
         <f>SUM(T46/T42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V46" s="89"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="116"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="115"/>
     </row>
     <row r="47" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="113">
+      <c r="B47" s="103">
         <v>-9</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="87"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="37" t="s">
         <v>6</v>
       </c>
@@ -9796,14 +9799,14 @@
         <v>0</v>
       </c>
       <c r="U47" s="39"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="124"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="X47" s="137"/>
     </row>
     <row r="48" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="99"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="40" t="s">
         <v>142</v>
       </c>
@@ -9851,14 +9854,14 @@
       </c>
       <c r="T48" s="42"/>
       <c r="U48" s="43"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="115"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="114"/>
     </row>
     <row r="49" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="99"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="44" t="s">
         <v>3</v>
       </c>
@@ -9906,14 +9909,14 @@
       </c>
       <c r="T49" s="46"/>
       <c r="U49" s="47"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="115"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="114"/>
     </row>
     <row r="50" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="99"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="48" t="s">
         <v>4</v>
       </c>
@@ -9975,14 +9978,14 @@
       </c>
       <c r="T50" s="46"/>
       <c r="U50" s="47"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="115"/>
+      <c r="V50" s="94"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="114"/>
     </row>
     <row r="51" spans="2:24" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="112"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="89"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="49" t="s">
         <v>7</v>
       </c>
@@ -10050,16 +10053,16 @@
         <f>SUM(T51/T47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V51" s="89"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="116"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="115"/>
     </row>
     <row r="52" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="113">
+      <c r="B52" s="103">
         <v>-10</v>
       </c>
-      <c r="C52" s="97"/>
-      <c r="D52" s="87"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="37" t="s">
         <v>6</v>
       </c>
@@ -10124,14 +10127,14 @@
         <v>0</v>
       </c>
       <c r="U52" s="39"/>
-      <c r="V52" s="87"/>
-      <c r="W52" s="87"/>
-      <c r="X52" s="124"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="137"/>
     </row>
     <row r="53" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="99"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="40" t="s">
         <v>142</v>
       </c>
@@ -10179,14 +10182,14 @@
       </c>
       <c r="T53" s="42"/>
       <c r="U53" s="43"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="115"/>
+      <c r="V53" s="94"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="114"/>
     </row>
     <row r="54" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="99"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="88"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="44" t="s">
         <v>3</v>
       </c>
@@ -10234,14 +10237,14 @@
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="115"/>
+      <c r="V54" s="94"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="114"/>
     </row>
     <row r="55" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="99"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="88"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="48" t="s">
         <v>4</v>
       </c>
@@ -10303,14 +10306,14 @@
       </c>
       <c r="T55" s="46"/>
       <c r="U55" s="47"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="115"/>
+      <c r="V55" s="94"/>
+      <c r="W55" s="94"/>
+      <c r="X55" s="114"/>
     </row>
     <row r="56" spans="2:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="112"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="89"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="49" t="s">
         <v>7</v>
       </c>
@@ -10378,16 +10381,16 @@
         <f>SUM(T56/T52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V56" s="89"/>
-      <c r="W56" s="89"/>
-      <c r="X56" s="116"/>
+      <c r="V56" s="95"/>
+      <c r="W56" s="95"/>
+      <c r="X56" s="115"/>
     </row>
     <row r="57" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="113">
+      <c r="B57" s="103">
         <v>-11</v>
       </c>
-      <c r="C57" s="97"/>
-      <c r="D57" s="87"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="37" t="s">
         <v>6</v>
       </c>
@@ -10452,14 +10455,14 @@
         <v>0</v>
       </c>
       <c r="U57" s="39"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
-      <c r="X57" s="124"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
+      <c r="X57" s="137"/>
     </row>
     <row r="58" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="99"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="88"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="94"/>
       <c r="E58" s="40" t="s">
         <v>142</v>
       </c>
@@ -10507,14 +10510,14 @@
       </c>
       <c r="T58" s="42"/>
       <c r="U58" s="43"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="115"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
+      <c r="X58" s="114"/>
     </row>
     <row r="59" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="99"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="88"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="94"/>
       <c r="E59" s="44" t="s">
         <v>3</v>
       </c>
@@ -10562,14 +10565,14 @@
       </c>
       <c r="T59" s="46"/>
       <c r="U59" s="47"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="115"/>
+      <c r="V59" s="94"/>
+      <c r="W59" s="94"/>
+      <c r="X59" s="114"/>
     </row>
     <row r="60" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="99"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="88"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="94"/>
       <c r="E60" s="48" t="s">
         <v>4</v>
       </c>
@@ -10631,14 +10634,14 @@
       </c>
       <c r="T60" s="46"/>
       <c r="U60" s="47"/>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="115"/>
+      <c r="V60" s="94"/>
+      <c r="W60" s="94"/>
+      <c r="X60" s="114"/>
     </row>
     <row r="61" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="112"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="89"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="95"/>
       <c r="E61" s="49" t="s">
         <v>7</v>
       </c>
@@ -10706,16 +10709,16 @@
         <f>SUM(T61/T57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V61" s="89"/>
-      <c r="W61" s="89"/>
-      <c r="X61" s="116"/>
+      <c r="V61" s="95"/>
+      <c r="W61" s="95"/>
+      <c r="X61" s="115"/>
     </row>
     <row r="62" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="113">
+      <c r="B62" s="103">
         <v>-12</v>
       </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="87"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="37" t="s">
         <v>6</v>
       </c>
@@ -10780,14 +10783,14 @@
         <v>0</v>
       </c>
       <c r="U62" s="39"/>
-      <c r="V62" s="87"/>
-      <c r="W62" s="87"/>
-      <c r="X62" s="124"/>
+      <c r="V62" s="96"/>
+      <c r="W62" s="96"/>
+      <c r="X62" s="137"/>
     </row>
     <row r="63" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="99"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="88"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
       <c r="E63" s="40" t="s">
         <v>142</v>
       </c>
@@ -10835,14 +10838,14 @@
       </c>
       <c r="T63" s="42"/>
       <c r="U63" s="43"/>
-      <c r="V63" s="88"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="115"/>
+      <c r="V63" s="94"/>
+      <c r="W63" s="94"/>
+      <c r="X63" s="114"/>
     </row>
     <row r="64" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="99"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="88"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="94"/>
       <c r="E64" s="44" t="s">
         <v>3</v>
       </c>
@@ -10890,14 +10893,14 @@
       </c>
       <c r="T64" s="46"/>
       <c r="U64" s="47"/>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="115"/>
+      <c r="V64" s="94"/>
+      <c r="W64" s="94"/>
+      <c r="X64" s="114"/>
     </row>
     <row r="65" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="99"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="88"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="94"/>
       <c r="E65" s="48" t="s">
         <v>4</v>
       </c>
@@ -10959,14 +10962,14 @@
       </c>
       <c r="T65" s="46"/>
       <c r="U65" s="47"/>
-      <c r="V65" s="88"/>
-      <c r="W65" s="88"/>
-      <c r="X65" s="115"/>
+      <c r="V65" s="94"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="114"/>
     </row>
     <row r="66" spans="2:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="112"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="89"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="49" t="s">
         <v>7</v>
       </c>
@@ -11034,16 +11037,16 @@
         <f>SUM(T66/T62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V66" s="89"/>
-      <c r="W66" s="89"/>
-      <c r="X66" s="116"/>
+      <c r="V66" s="95"/>
+      <c r="W66" s="95"/>
+      <c r="X66" s="115"/>
     </row>
     <row r="67" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="113">
+      <c r="B67" s="103">
         <v>-13</v>
       </c>
-      <c r="C67" s="97"/>
-      <c r="D67" s="87"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="37" t="s">
         <v>6</v>
       </c>
@@ -11108,14 +11111,14 @@
         <v>0</v>
       </c>
       <c r="U67" s="39"/>
-      <c r="V67" s="87"/>
-      <c r="W67" s="87"/>
-      <c r="X67" s="124"/>
+      <c r="V67" s="96"/>
+      <c r="W67" s="96"/>
+      <c r="X67" s="137"/>
     </row>
     <row r="68" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="99"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="88"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="94"/>
       <c r="E68" s="40" t="s">
         <v>142</v>
       </c>
@@ -11163,14 +11166,14 @@
       </c>
       <c r="T68" s="42"/>
       <c r="U68" s="43"/>
-      <c r="V68" s="88"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="115"/>
+      <c r="V68" s="94"/>
+      <c r="W68" s="94"/>
+      <c r="X68" s="114"/>
     </row>
     <row r="69" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="99"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="88"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="94"/>
       <c r="E69" s="44" t="s">
         <v>3</v>
       </c>
@@ -11218,14 +11221,14 @@
       </c>
       <c r="T69" s="46"/>
       <c r="U69" s="47"/>
-      <c r="V69" s="88"/>
-      <c r="W69" s="88"/>
-      <c r="X69" s="115"/>
+      <c r="V69" s="94"/>
+      <c r="W69" s="94"/>
+      <c r="X69" s="114"/>
     </row>
     <row r="70" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="99"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="88"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="94"/>
       <c r="E70" s="48" t="s">
         <v>4</v>
       </c>
@@ -11287,14 +11290,14 @@
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
-      <c r="V70" s="88"/>
-      <c r="W70" s="88"/>
-      <c r="X70" s="115"/>
+      <c r="V70" s="94"/>
+      <c r="W70" s="94"/>
+      <c r="X70" s="114"/>
     </row>
     <row r="71" spans="2:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="108"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="89"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="95"/>
       <c r="E71" s="52" t="s">
         <v>7</v>
       </c>
@@ -11362,18 +11365,13 @@
         <f>SUM(T71/T67)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V71" s="89"/>
-      <c r="W71" s="89"/>
-      <c r="X71" s="116"/>
+      <c r="V71" s="95"/>
+      <c r="W71" s="95"/>
+      <c r="X71" s="115"/>
     </row>
     <row r="72" spans="2:24" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="V67:V71"/>
-    <mergeCell ref="W67:W71"/>
     <mergeCell ref="X67:X71"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="C62:C66"/>
@@ -11381,11 +11379,11 @@
     <mergeCell ref="V62:V66"/>
     <mergeCell ref="W62:W66"/>
     <mergeCell ref="X62:X66"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="V57:V61"/>
-    <mergeCell ref="W57:W61"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="V67:V71"/>
+    <mergeCell ref="W67:W71"/>
     <mergeCell ref="X57:X61"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="C52:C56"/>
@@ -11393,11 +11391,11 @@
     <mergeCell ref="V52:V56"/>
     <mergeCell ref="W52:W56"/>
     <mergeCell ref="X52:X56"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="W47:W51"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="V57:V61"/>
+    <mergeCell ref="W57:W61"/>
     <mergeCell ref="X47:X51"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
@@ -11405,11 +11403,11 @@
     <mergeCell ref="V42:V46"/>
     <mergeCell ref="W42:W46"/>
     <mergeCell ref="X42:X46"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="V37:V41"/>
-    <mergeCell ref="W37:W41"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="W47:W51"/>
     <mergeCell ref="X37:X41"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C32:C36"/>
@@ -11417,11 +11415,11 @@
     <mergeCell ref="V32:V36"/>
     <mergeCell ref="W32:W36"/>
     <mergeCell ref="X32:X36"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="V27:V31"/>
-    <mergeCell ref="W27:W31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="V37:V41"/>
+    <mergeCell ref="W37:W41"/>
     <mergeCell ref="X27:X31"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:C26"/>
@@ -11429,11 +11427,11 @@
     <mergeCell ref="V22:V26"/>
     <mergeCell ref="W22:W26"/>
     <mergeCell ref="X22:X26"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="V17:V21"/>
-    <mergeCell ref="W17:W21"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="V27:V31"/>
+    <mergeCell ref="W27:W31"/>
     <mergeCell ref="X17:X21"/>
     <mergeCell ref="X7:X11"/>
     <mergeCell ref="B12:B16"/>
@@ -11442,6 +11440,11 @@
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="W12:W16"/>
     <mergeCell ref="X12:X16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="V17:V21"/>
+    <mergeCell ref="W17:W21"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="W5:W6"/>
@@ -11466,60 +11469,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE40B6-F7C7-4911-A990-9546BE2316B9}">
   <dimension ref="B4:W72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="139" t="s">
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="128" t="s">
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="128" t="s">
+      <c r="T5" s="120" t="s">
         <v>9</v>
       </c>
       <c r="U5" s="27"/>
-      <c r="V5" s="128" t="s">
+      <c r="V5" s="120" t="s">
         <v>42</v>
       </c>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="2:23" ht="120.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="143"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="134"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="25" t="s">
         <v>54</v>
       </c>
@@ -11559,24 +11565,24 @@
       <c r="R6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
       <c r="U6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="129"/>
+      <c r="V6" s="121"/>
       <c r="W6" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="126">
+      <c r="B7" s="122">
         <v>-1</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="96" t="s">
         <v>148</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -11639,14 +11645,14 @@
         <v>17</v>
       </c>
       <c r="T7" s="39"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="124"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="137"/>
     </row>
     <row r="8" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="29" t="s">
         <v>142</v>
       </c>
@@ -11691,14 +11697,14 @@
       </c>
       <c r="S8" s="42"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="115"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="114"/>
     </row>
     <row r="9" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="30" t="s">
         <v>3</v>
       </c>
@@ -11743,14 +11749,14 @@
       </c>
       <c r="S9" s="46"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="115"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="114"/>
     </row>
     <row r="10" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="88"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="31" t="s">
         <v>4</v>
       </c>
@@ -11808,14 +11814,14 @@
       </c>
       <c r="S10" s="46"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="115"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="114"/>
     </row>
     <row r="11" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="32" t="s">
         <v>7</v>
       </c>
@@ -11879,18 +11885,18 @@
         <f>SUM(S11/S7)</f>
         <v>59.823529411764703</v>
       </c>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="116"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="115"/>
     </row>
     <row r="12" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="126">
+      <c r="B12" s="122">
         <v>-2</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="96" t="s">
         <v>149</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -11953,14 +11959,14 @@
         <v>9</v>
       </c>
       <c r="T12" s="39"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="124"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="137"/>
     </row>
     <row r="13" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="120"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="88"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="29" t="s">
         <v>142</v>
       </c>
@@ -12005,14 +12011,14 @@
       </c>
       <c r="S13" s="42"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="115"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="114"/>
     </row>
     <row r="14" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="120"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
@@ -12057,14 +12063,14 @@
       </c>
       <c r="S14" s="46"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="115"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="114"/>
     </row>
     <row r="15" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="31" t="s">
         <v>4</v>
       </c>
@@ -12122,14 +12128,14 @@
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="47"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="115"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="114"/>
     </row>
     <row r="16" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="121"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="32" t="s">
         <v>7</v>
       </c>
@@ -12193,18 +12199,18 @@
         <f>SUM(S16/S12)</f>
         <v>23.222222222222221</v>
       </c>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="116"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="115"/>
     </row>
     <row r="17" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="126">
+      <c r="B17" s="122">
         <v>-3</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="94" t="s">
         <v>150</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -12267,14 +12273,14 @@
         <v>4</v>
       </c>
       <c r="T17" s="39"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="124"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="137"/>
     </row>
     <row r="18" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="33" t="s">
         <v>142</v>
       </c>
@@ -12319,14 +12325,14 @@
       </c>
       <c r="S18" s="42"/>
       <c r="T18" s="43"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="115"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="114"/>
     </row>
     <row r="19" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="30" t="s">
         <v>3</v>
       </c>
@@ -12371,14 +12377,14 @@
       </c>
       <c r="S19" s="46"/>
       <c r="T19" s="47"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="115"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="114"/>
     </row>
     <row r="20" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="88"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="31" t="s">
         <v>4</v>
       </c>
@@ -12436,14 +12442,14 @@
       </c>
       <c r="S20" s="46"/>
       <c r="T20" s="47"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="115"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="114"/>
     </row>
     <row r="21" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="121"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="89"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="35" t="s">
         <v>7</v>
       </c>
@@ -12507,18 +12513,18 @@
         <f>SUM(S21/S17)</f>
         <v>11</v>
       </c>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="116"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="115"/>
     </row>
     <row r="22" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="126">
+      <c r="B22" s="122">
         <v>-4</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="106" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -12581,14 +12587,14 @@
         <v>9</v>
       </c>
       <c r="T22" s="39"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="124"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="137"/>
     </row>
     <row r="23" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="33" t="s">
         <v>142</v>
       </c>
@@ -12633,14 +12639,14 @@
       </c>
       <c r="S23" s="42"/>
       <c r="T23" s="43"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="115"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="114"/>
     </row>
     <row r="24" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="30" t="s">
         <v>3</v>
       </c>
@@ -12685,14 +12691,14 @@
       </c>
       <c r="S24" s="46"/>
       <c r="T24" s="47"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="115"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="114"/>
     </row>
     <row r="25" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="31" t="s">
         <v>4</v>
       </c>
@@ -12750,14 +12756,14 @@
       </c>
       <c r="S25" s="46"/>
       <c r="T25" s="47"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="115"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="114"/>
     </row>
     <row r="26" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="121"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="89"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="35" t="s">
         <v>7</v>
       </c>
@@ -12821,18 +12827,18 @@
         <f>SUM(S26/S22)</f>
         <v>20.888888888888889</v>
       </c>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="116"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="115"/>
     </row>
     <row r="27" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="126">
+      <c r="B27" s="122">
         <v>-5</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="106" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -12895,14 +12901,14 @@
         <v>9</v>
       </c>
       <c r="T27" s="39"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="124"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="137"/>
     </row>
     <row r="28" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="120"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="88"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="33" t="s">
         <v>142</v>
       </c>
@@ -12947,14 +12953,14 @@
       </c>
       <c r="S28" s="42"/>
       <c r="T28" s="43"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="115"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="114"/>
     </row>
     <row r="29" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="120"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="88"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
@@ -12999,14 +13005,14 @@
       </c>
       <c r="S29" s="46"/>
       <c r="T29" s="47"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="115"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="114"/>
     </row>
     <row r="30" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="120"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="88"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="31" t="s">
         <v>4</v>
       </c>
@@ -13064,14 +13070,14 @@
       </c>
       <c r="S30" s="46"/>
       <c r="T30" s="47"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="115"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="114"/>
     </row>
     <row r="31" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="89"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="32" t="s">
         <v>7</v>
       </c>
@@ -13135,18 +13141,18 @@
         <f>SUM(S31/S27)</f>
         <v>44</v>
       </c>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="116"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="115"/>
     </row>
     <row r="32" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="126">
+      <c r="B32" s="122">
         <v>-6</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="106" t="s">
         <v>152</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -13209,14 +13215,14 @@
         <v>16</v>
       </c>
       <c r="T32" s="39"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="124"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="137"/>
     </row>
     <row r="33" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="120"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="33" t="s">
         <v>142</v>
       </c>
@@ -13261,14 +13267,14 @@
       </c>
       <c r="S33" s="42"/>
       <c r="T33" s="43"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="115"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="114"/>
     </row>
     <row r="34" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="88"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="30" t="s">
         <v>3</v>
       </c>
@@ -13313,14 +13319,14 @@
       </c>
       <c r="S34" s="46"/>
       <c r="T34" s="47"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="115"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="114"/>
     </row>
     <row r="35" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="120"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="88"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="31" t="s">
         <v>4</v>
       </c>
@@ -13378,14 +13384,14 @@
       </c>
       <c r="S35" s="46"/>
       <c r="T35" s="47"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="115"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="114"/>
     </row>
     <row r="36" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="121"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="32" t="s">
         <v>7</v>
       </c>
@@ -13449,18 +13455,18 @@
         <f>SUM(S36/S32)</f>
         <v>24.375</v>
       </c>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="116"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="115"/>
     </row>
     <row r="37" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="126">
+      <c r="B37" s="122">
         <v>-7</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="94" t="s">
         <v>153</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -13523,14 +13529,14 @@
         <v>7</v>
       </c>
       <c r="T37" s="39"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="124"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="137"/>
     </row>
     <row r="38" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="120"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="88"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="33" t="s">
         <v>142</v>
       </c>
@@ -13575,14 +13581,14 @@
       </c>
       <c r="S38" s="42"/>
       <c r="T38" s="43"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="115"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="114"/>
     </row>
     <row r="39" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="120"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="30" t="s">
         <v>3</v>
       </c>
@@ -13627,14 +13633,14 @@
       </c>
       <c r="S39" s="46"/>
       <c r="T39" s="47"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="115"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="114"/>
     </row>
     <row r="40" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="120"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="88"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="31" t="s">
         <v>4</v>
       </c>
@@ -13692,14 +13698,14 @@
       </c>
       <c r="S40" s="46"/>
       <c r="T40" s="47"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="115"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="114"/>
     </row>
     <row r="41" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="121"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="89"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="32" t="s">
         <v>7</v>
       </c>
@@ -13763,19 +13769,19 @@
         <f>SUM(S41/S37)</f>
         <v>22</v>
       </c>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="116"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="115"/>
     </row>
     <row r="42" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="126">
+      <c r="B42" s="122">
         <v>-8</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="87" t="s">
-        <v>132</v>
+      <c r="D42" s="96" t="s">
+        <v>154</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>6</v>
@@ -13837,14 +13843,14 @@
         <v>21</v>
       </c>
       <c r="T42" s="39"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
-      <c r="W42" s="124"/>
+      <c r="U42" s="144"/>
+      <c r="V42" s="144"/>
+      <c r="W42" s="137"/>
     </row>
     <row r="43" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="120"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="88"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="29" t="s">
         <v>142</v>
       </c>
@@ -13877,14 +13883,14 @@
       <c r="R43" s="42"/>
       <c r="S43" s="42"/>
       <c r="T43" s="43"/>
-      <c r="U43" s="102"/>
-      <c r="V43" s="102"/>
-      <c r="W43" s="115"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="114"/>
     </row>
     <row r="44" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="120"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="30" t="s">
         <v>3</v>
       </c>
@@ -13915,14 +13921,14 @@
       <c r="R44" s="45"/>
       <c r="S44" s="46"/>
       <c r="T44" s="47"/>
-      <c r="U44" s="102"/>
-      <c r="V44" s="102"/>
-      <c r="W44" s="115"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="114"/>
     </row>
     <row r="45" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="120"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="88"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="31" t="s">
         <v>4</v>
       </c>
@@ -13980,14 +13986,14 @@
       </c>
       <c r="S45" s="46"/>
       <c r="T45" s="47"/>
-      <c r="U45" s="102"/>
-      <c r="V45" s="102"/>
-      <c r="W45" s="115"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="114"/>
     </row>
     <row r="46" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="121"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="89"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="95"/>
       <c r="E46" s="32" t="s">
         <v>7</v>
       </c>
@@ -14051,16 +14057,16 @@
         <f>SUM(S46/S42)</f>
         <v>64.523809523809518</v>
       </c>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="116"/>
+      <c r="U46" s="112"/>
+      <c r="V46" s="112"/>
+      <c r="W46" s="115"/>
     </row>
     <row r="47" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="126">
+      <c r="B47" s="122">
         <v>-9</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="87"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="9" t="s">
         <v>6</v>
       </c>
@@ -14121,14 +14127,14 @@
         <v>0</v>
       </c>
       <c r="T47" s="39"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="124"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="137"/>
     </row>
     <row r="48" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="120"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="88"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="29" t="s">
         <v>142</v>
       </c>
@@ -14147,14 +14153,14 @@
       <c r="R48" s="42"/>
       <c r="S48" s="42"/>
       <c r="T48" s="43"/>
-      <c r="U48" s="102"/>
-      <c r="V48" s="102"/>
-      <c r="W48" s="115"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="114"/>
     </row>
     <row r="49" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="120"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="30" t="s">
         <v>3</v>
       </c>
@@ -14173,14 +14179,14 @@
       <c r="R49" s="45"/>
       <c r="S49" s="46"/>
       <c r="T49" s="47"/>
-      <c r="U49" s="102"/>
-      <c r="V49" s="102"/>
-      <c r="W49" s="115"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="114"/>
     </row>
     <row r="50" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="120"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="88"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="31" t="s">
         <v>4</v>
       </c>
@@ -14238,14 +14244,14 @@
       </c>
       <c r="S50" s="46"/>
       <c r="T50" s="47"/>
-      <c r="U50" s="102"/>
-      <c r="V50" s="102"/>
-      <c r="W50" s="115"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="114"/>
     </row>
     <row r="51" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="121"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="89"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="32" t="s">
         <v>7</v>
       </c>
@@ -14309,16 +14315,16 @@
         <f>SUM(S51/S47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U51" s="103"/>
-      <c r="V51" s="103"/>
-      <c r="W51" s="116"/>
+      <c r="U51" s="112"/>
+      <c r="V51" s="112"/>
+      <c r="W51" s="115"/>
     </row>
     <row r="52" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="126">
+      <c r="B52" s="122">
         <v>-10</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="87"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="10" t="s">
         <v>6</v>
       </c>
@@ -14379,14 +14385,14 @@
         <v>0</v>
       </c>
       <c r="T52" s="39"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="124"/>
+      <c r="U52" s="110"/>
+      <c r="V52" s="110"/>
+      <c r="W52" s="137"/>
     </row>
     <row r="53" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="120"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="88"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="33" t="s">
         <v>142</v>
       </c>
@@ -14405,14 +14411,14 @@
       <c r="R53" s="42"/>
       <c r="S53" s="42"/>
       <c r="T53" s="43"/>
-      <c r="U53" s="102"/>
-      <c r="V53" s="102"/>
-      <c r="W53" s="115"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="114"/>
     </row>
     <row r="54" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="120"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="88"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="30" t="s">
         <v>3</v>
       </c>
@@ -14431,14 +14437,14 @@
       <c r="R54" s="45"/>
       <c r="S54" s="46"/>
       <c r="T54" s="47"/>
-      <c r="U54" s="102"/>
-      <c r="V54" s="102"/>
-      <c r="W54" s="115"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="114"/>
     </row>
     <row r="55" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="120"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="88"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="31" t="s">
         <v>4</v>
       </c>
@@ -14496,14 +14502,14 @@
       </c>
       <c r="S55" s="46"/>
       <c r="T55" s="47"/>
-      <c r="U55" s="102"/>
-      <c r="V55" s="102"/>
-      <c r="W55" s="115"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="114"/>
     </row>
     <row r="56" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="121"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="89"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="35" t="s">
         <v>7</v>
       </c>
@@ -14567,16 +14573,16 @@
         <f>SUM(S56/S52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U56" s="103"/>
-      <c r="V56" s="103"/>
-      <c r="W56" s="116"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="115"/>
     </row>
     <row r="57" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="126">
+      <c r="B57" s="122">
         <v>-11</v>
       </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="87"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="10" t="s">
         <v>6</v>
       </c>
@@ -14637,14 +14643,14 @@
         <v>0</v>
       </c>
       <c r="T57" s="39"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="124"/>
+      <c r="U57" s="110"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="137"/>
     </row>
     <row r="58" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="120"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="88"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="94"/>
       <c r="E58" s="33" t="s">
         <v>142</v>
       </c>
@@ -14663,14 +14669,14 @@
       <c r="R58" s="42"/>
       <c r="S58" s="42"/>
       <c r="T58" s="43"/>
-      <c r="U58" s="102"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="115"/>
+      <c r="U58" s="111"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="114"/>
     </row>
     <row r="59" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="120"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="88"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="94"/>
       <c r="E59" s="30" t="s">
         <v>3</v>
       </c>
@@ -14689,14 +14695,14 @@
       <c r="R59" s="45"/>
       <c r="S59" s="46"/>
       <c r="T59" s="47"/>
-      <c r="U59" s="102"/>
-      <c r="V59" s="102"/>
-      <c r="W59" s="115"/>
+      <c r="U59" s="111"/>
+      <c r="V59" s="111"/>
+      <c r="W59" s="114"/>
     </row>
     <row r="60" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="120"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="88"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="94"/>
       <c r="E60" s="31" t="s">
         <v>4</v>
       </c>
@@ -14754,14 +14760,14 @@
       </c>
       <c r="S60" s="46"/>
       <c r="T60" s="47"/>
-      <c r="U60" s="102"/>
-      <c r="V60" s="102"/>
-      <c r="W60" s="115"/>
+      <c r="U60" s="111"/>
+      <c r="V60" s="111"/>
+      <c r="W60" s="114"/>
     </row>
     <row r="61" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="121"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="89"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="95"/>
       <c r="E61" s="35" t="s">
         <v>7</v>
       </c>
@@ -14825,16 +14831,16 @@
         <f>SUM(S61/S57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U61" s="103"/>
-      <c r="V61" s="103"/>
-      <c r="W61" s="116"/>
+      <c r="U61" s="112"/>
+      <c r="V61" s="112"/>
+      <c r="W61" s="115"/>
     </row>
     <row r="62" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="126">
+      <c r="B62" s="122">
         <v>-12</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="87"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="10" t="s">
         <v>6</v>
       </c>
@@ -14895,14 +14901,14 @@
         <v>0</v>
       </c>
       <c r="T62" s="39"/>
-      <c r="U62" s="101"/>
-      <c r="V62" s="101"/>
-      <c r="W62" s="124"/>
+      <c r="U62" s="110"/>
+      <c r="V62" s="110"/>
+      <c r="W62" s="137"/>
     </row>
     <row r="63" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="120"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="88"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
       <c r="E63" s="33" t="s">
         <v>142</v>
       </c>
@@ -14921,14 +14927,14 @@
       <c r="R63" s="42"/>
       <c r="S63" s="42"/>
       <c r="T63" s="43"/>
-      <c r="U63" s="102"/>
-      <c r="V63" s="102"/>
-      <c r="W63" s="115"/>
+      <c r="U63" s="111"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="114"/>
     </row>
     <row r="64" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="120"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="88"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="94"/>
       <c r="E64" s="30" t="s">
         <v>3</v>
       </c>
@@ -14947,14 +14953,14 @@
       <c r="R64" s="45"/>
       <c r="S64" s="46"/>
       <c r="T64" s="47"/>
-      <c r="U64" s="102"/>
-      <c r="V64" s="102"/>
-      <c r="W64" s="115"/>
+      <c r="U64" s="111"/>
+      <c r="V64" s="111"/>
+      <c r="W64" s="114"/>
     </row>
     <row r="65" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="120"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="88"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="94"/>
       <c r="E65" s="31" t="s">
         <v>4</v>
       </c>
@@ -15012,14 +15018,14 @@
       </c>
       <c r="S65" s="46"/>
       <c r="T65" s="47"/>
-      <c r="U65" s="102"/>
-      <c r="V65" s="102"/>
-      <c r="W65" s="115"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="114"/>
     </row>
     <row r="66" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="121"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="89"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="32" t="s">
         <v>7</v>
       </c>
@@ -15083,16 +15089,16 @@
         <f>SUM(S66/S62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U66" s="103"/>
-      <c r="V66" s="103"/>
-      <c r="W66" s="116"/>
+      <c r="U66" s="112"/>
+      <c r="V66" s="112"/>
+      <c r="W66" s="115"/>
     </row>
     <row r="67" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="126">
+      <c r="B67" s="122">
         <v>-13</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="87"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="10" t="s">
         <v>6</v>
       </c>
@@ -15153,14 +15159,14 @@
         <v>0</v>
       </c>
       <c r="T67" s="39"/>
-      <c r="U67" s="101"/>
-      <c r="V67" s="101"/>
-      <c r="W67" s="124"/>
+      <c r="U67" s="110"/>
+      <c r="V67" s="110"/>
+      <c r="W67" s="137"/>
     </row>
     <row r="68" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="120"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="88"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="94"/>
       <c r="E68" s="33" t="s">
         <v>142</v>
       </c>
@@ -15179,14 +15185,14 @@
       <c r="R68" s="42"/>
       <c r="S68" s="42"/>
       <c r="T68" s="43"/>
-      <c r="U68" s="102"/>
-      <c r="V68" s="102"/>
-      <c r="W68" s="115"/>
+      <c r="U68" s="111"/>
+      <c r="V68" s="111"/>
+      <c r="W68" s="114"/>
     </row>
     <row r="69" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="120"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="88"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="94"/>
       <c r="E69" s="30" t="s">
         <v>3</v>
       </c>
@@ -15205,14 +15211,14 @@
       <c r="R69" s="45"/>
       <c r="S69" s="46"/>
       <c r="T69" s="47"/>
-      <c r="U69" s="102"/>
-      <c r="V69" s="102"/>
-      <c r="W69" s="115"/>
+      <c r="U69" s="111"/>
+      <c r="V69" s="111"/>
+      <c r="W69" s="114"/>
     </row>
     <row r="70" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="120"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="88"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="94"/>
       <c r="E70" s="31" t="s">
         <v>4</v>
       </c>
@@ -15270,14 +15276,14 @@
       </c>
       <c r="S70" s="46"/>
       <c r="T70" s="47"/>
-      <c r="U70" s="102"/>
-      <c r="V70" s="102"/>
-      <c r="W70" s="115"/>
+      <c r="U70" s="111"/>
+      <c r="V70" s="111"/>
+      <c r="W70" s="114"/>
     </row>
     <row r="71" spans="2:23" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="121"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="89"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="95"/>
       <c r="E71" s="32" t="s">
         <v>7</v>
       </c>
@@ -15341,18 +15347,13 @@
         <f>SUM(S71/S67)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U71" s="103"/>
-      <c r="V71" s="103"/>
-      <c r="W71" s="116"/>
+      <c r="U71" s="112"/>
+      <c r="V71" s="112"/>
+      <c r="W71" s="115"/>
     </row>
     <row r="72" spans="2:23" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="U67:U71"/>
-    <mergeCell ref="V67:V71"/>
     <mergeCell ref="W67:W71"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="C62:C66"/>
@@ -15360,11 +15361,11 @@
     <mergeCell ref="U62:U66"/>
     <mergeCell ref="V62:V66"/>
     <mergeCell ref="W62:W66"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="U57:U61"/>
-    <mergeCell ref="V57:V61"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="U67:U71"/>
+    <mergeCell ref="V67:V71"/>
     <mergeCell ref="W57:W61"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="C52:C56"/>
@@ -15372,11 +15373,11 @@
     <mergeCell ref="U52:U56"/>
     <mergeCell ref="V52:V56"/>
     <mergeCell ref="W52:W56"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="U47:U51"/>
-    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="U57:U61"/>
+    <mergeCell ref="V57:V61"/>
     <mergeCell ref="W47:W51"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
@@ -15384,11 +15385,11 @@
     <mergeCell ref="U42:U46"/>
     <mergeCell ref="V42:V46"/>
     <mergeCell ref="W42:W46"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="U37:U41"/>
-    <mergeCell ref="V37:V41"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="U47:U51"/>
+    <mergeCell ref="V47:V51"/>
     <mergeCell ref="W37:W41"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C32:C36"/>
@@ -15396,11 +15397,11 @@
     <mergeCell ref="U32:U36"/>
     <mergeCell ref="V32:V36"/>
     <mergeCell ref="W32:W36"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="U27:U31"/>
-    <mergeCell ref="V27:V31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="U37:U41"/>
+    <mergeCell ref="V37:V41"/>
     <mergeCell ref="W27:W31"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:C26"/>
@@ -15408,11 +15409,11 @@
     <mergeCell ref="U22:U26"/>
     <mergeCell ref="V22:V26"/>
     <mergeCell ref="W22:W26"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="U17:U21"/>
-    <mergeCell ref="V17:V21"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="U27:U31"/>
+    <mergeCell ref="V27:V31"/>
     <mergeCell ref="W17:W21"/>
     <mergeCell ref="W7:W11"/>
     <mergeCell ref="B12:B16"/>
@@ -15421,6 +15422,11 @@
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="W12:W16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="U17:U21"/>
+    <mergeCell ref="V17:V21"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="V5:V6"/>
@@ -15445,8 +15451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6456EA15-C999-4AAD-AA68-92832443ECE1}">
   <dimension ref="B4:X72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15457,53 +15463,53 @@
   <sheetData>
     <row r="4" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="139" t="s">
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="128" t="s">
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="128" t="s">
+      <c r="U5" s="120" t="s">
         <v>9</v>
       </c>
       <c r="V5" s="27"/>
-      <c r="W5" s="128" t="s">
+      <c r="W5" s="120" t="s">
         <v>42</v>
       </c>
       <c r="X5" s="28"/>
     </row>
     <row r="6" spans="2:24" ht="116.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="143"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="134"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="25" t="s">
         <v>53</v>
       </c>
@@ -15546,24 +15552,24 @@
       <c r="S6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
       <c r="V6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="129"/>
+      <c r="W6" s="121"/>
       <c r="X6" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="126">
+      <c r="B7" s="122">
         <v>-1</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="96" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -15630,14 +15636,14 @@
         <v>19</v>
       </c>
       <c r="U7" s="39"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="117"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="113"/>
     </row>
     <row r="8" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="29" t="s">
         <v>142</v>
       </c>
@@ -15685,14 +15691,14 @@
       </c>
       <c r="T8" s="42"/>
       <c r="U8" s="43"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="115"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="30" t="s">
         <v>3</v>
       </c>
@@ -15740,14 +15746,14 @@
       </c>
       <c r="T9" s="46"/>
       <c r="U9" s="47"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="115"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="114"/>
     </row>
     <row r="10" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="88"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="31" t="s">
         <v>4</v>
       </c>
@@ -15809,14 +15815,14 @@
       </c>
       <c r="T10" s="46"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="115"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="114"/>
     </row>
     <row r="11" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="32" t="s">
         <v>7</v>
       </c>
@@ -15884,18 +15890,18 @@
         <f>SUM(T11/T7)</f>
         <v>54.578947368421055</v>
       </c>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="116"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="115"/>
     </row>
     <row r="12" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="126">
+      <c r="B12" s="122">
         <v>-2</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="94" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -15962,14 +15968,14 @@
         <v>11</v>
       </c>
       <c r="U12" s="39"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="117"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="113"/>
     </row>
     <row r="13" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="120"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="88"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="29" t="s">
         <v>142</v>
       </c>
@@ -16017,14 +16023,14 @@
       </c>
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="115"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="114"/>
     </row>
     <row r="14" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="120"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
@@ -16072,14 +16078,14 @@
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="115"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="114"/>
     </row>
     <row r="15" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="31" t="s">
         <v>4</v>
       </c>
@@ -16141,14 +16147,14 @@
       </c>
       <c r="T15" s="46"/>
       <c r="U15" s="47"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="115"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="114"/>
     </row>
     <row r="16" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="121"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="32" t="s">
         <v>7</v>
       </c>
@@ -16216,18 +16222,18 @@
         <f>SUM(T16/T12)</f>
         <v>29</v>
       </c>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="116"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="115"/>
     </row>
     <row r="17" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="126">
+      <c r="B17" s="122">
         <v>-3</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="94" t="s">
         <v>132</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -16294,14 +16300,14 @@
         <v>15</v>
       </c>
       <c r="U17" s="39"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="117"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="113"/>
     </row>
     <row r="18" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="33" t="s">
         <v>142</v>
       </c>
@@ -16349,14 +16355,14 @@
       </c>
       <c r="T18" s="42"/>
       <c r="U18" s="43"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="115"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="114"/>
     </row>
     <row r="19" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="30" t="s">
         <v>3</v>
       </c>
@@ -16404,14 +16410,14 @@
       </c>
       <c r="T19" s="46"/>
       <c r="U19" s="47"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="115"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="114"/>
     </row>
     <row r="20" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="88"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="31" t="s">
         <v>4</v>
       </c>
@@ -16473,14 +16479,14 @@
       </c>
       <c r="T20" s="46"/>
       <c r="U20" s="47"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="115"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="114"/>
     </row>
     <row r="21" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="121"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="89"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="35" t="s">
         <v>7</v>
       </c>
@@ -16548,18 +16554,18 @@
         <f>SUM(T21/T17)</f>
         <v>31.666666666666668</v>
       </c>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="116"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="115"/>
     </row>
     <row r="22" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="126">
+      <c r="B22" s="122">
         <v>-4</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="94" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -16626,14 +16632,14 @@
         <v>11</v>
       </c>
       <c r="U22" s="39"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="117"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="113"/>
     </row>
     <row r="23" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="33" t="s">
         <v>142</v>
       </c>
@@ -16681,14 +16687,14 @@
       </c>
       <c r="T23" s="42"/>
       <c r="U23" s="43"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="115"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="114"/>
     </row>
     <row r="24" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="30" t="s">
         <v>3</v>
       </c>
@@ -16736,14 +16742,14 @@
       </c>
       <c r="T24" s="46"/>
       <c r="U24" s="47"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="115"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="114"/>
     </row>
     <row r="25" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="31" t="s">
         <v>4</v>
       </c>
@@ -16805,14 +16811,14 @@
       </c>
       <c r="T25" s="46"/>
       <c r="U25" s="47"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="115"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="114"/>
     </row>
     <row r="26" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="121"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="89"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="35" t="s">
         <v>7</v>
       </c>
@@ -16880,18 +16886,18 @@
         <f>SUM(T26/T22)</f>
         <v>32.545454545454547</v>
       </c>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="116"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="115"/>
     </row>
     <row r="27" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="126">
+      <c r="B27" s="122">
         <v>-5</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="106" t="s">
         <v>134</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -16958,14 +16964,14 @@
         <v>15</v>
       </c>
       <c r="U27" s="39"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="117"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="113"/>
     </row>
     <row r="28" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="120"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="88"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="33" t="s">
         <v>142</v>
       </c>
@@ -17013,14 +17019,14 @@
       </c>
       <c r="T28" s="42"/>
       <c r="U28" s="43"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="115"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="114"/>
     </row>
     <row r="29" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="120"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="88"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
@@ -17068,14 +17074,14 @@
       </c>
       <c r="T29" s="46"/>
       <c r="U29" s="47"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="115"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="114"/>
     </row>
     <row r="30" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="120"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="88"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="31" t="s">
         <v>4</v>
       </c>
@@ -17137,14 +17143,14 @@
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="115"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="114"/>
     </row>
     <row r="31" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="89"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="32" t="s">
         <v>7</v>
       </c>
@@ -17212,18 +17218,18 @@
         <f>SUM(T31/T27)</f>
         <v>21.066666666666666</v>
       </c>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="116"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="115"/>
     </row>
     <row r="32" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="126">
+      <c r="B32" s="122">
         <v>-6</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="106" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -17290,14 +17296,14 @@
         <v>11</v>
       </c>
       <c r="U32" s="39"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="117"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="113"/>
     </row>
     <row r="33" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="120"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="33" t="s">
         <v>142</v>
       </c>
@@ -17345,14 +17351,14 @@
       </c>
       <c r="T33" s="42"/>
       <c r="U33" s="43"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="115"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="114"/>
     </row>
     <row r="34" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="88"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="30" t="s">
         <v>3</v>
       </c>
@@ -17400,14 +17406,14 @@
       </c>
       <c r="T34" s="46"/>
       <c r="U34" s="47"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="115"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="114"/>
     </row>
     <row r="35" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="120"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="88"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="31" t="s">
         <v>4</v>
       </c>
@@ -17469,14 +17475,14 @@
       </c>
       <c r="T35" s="46"/>
       <c r="U35" s="47"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="115"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="114"/>
     </row>
     <row r="36" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="121"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="32" t="s">
         <v>7</v>
       </c>
@@ -17544,18 +17550,18 @@
         <f>SUM(T36/T32)</f>
         <v>25.545454545454547</v>
       </c>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="116"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="115"/>
     </row>
     <row r="37" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="126">
+      <c r="B37" s="122">
         <v>-7</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="106" t="s">
         <v>136</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -17622,14 +17628,14 @@
         <v>11</v>
       </c>
       <c r="U37" s="39"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="117"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="113"/>
     </row>
     <row r="38" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="120"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="88"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="33" t="s">
         <v>142</v>
       </c>
@@ -17677,14 +17683,14 @@
       </c>
       <c r="T38" s="42"/>
       <c r="U38" s="43"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="115"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="114"/>
     </row>
     <row r="39" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="120"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="30" t="s">
         <v>3</v>
       </c>
@@ -17732,14 +17738,14 @@
       </c>
       <c r="T39" s="46"/>
       <c r="U39" s="47"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="115"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="114"/>
     </row>
     <row r="40" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="120"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="88"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="31" t="s">
         <v>4</v>
       </c>
@@ -17801,14 +17807,14 @@
       </c>
       <c r="T40" s="46"/>
       <c r="U40" s="47"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="115"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="114"/>
     </row>
     <row r="41" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="121"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="89"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="32" t="s">
         <v>7</v>
       </c>
@@ -17876,16 +17882,16 @@
         <f>SUM(T41/T37)</f>
         <v>28.363636363636363</v>
       </c>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="116"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="115"/>
     </row>
     <row r="42" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="126">
+      <c r="B42" s="122">
         <v>-8</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="87"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="9" t="s">
         <v>6</v>
       </c>
@@ -17950,14 +17956,14 @@
         <v>0</v>
       </c>
       <c r="U42" s="39"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="117"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="113"/>
     </row>
     <row r="43" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="120"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="88"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="29" t="s">
         <v>142</v>
       </c>
@@ -18005,14 +18011,14 @@
       </c>
       <c r="T43" s="42"/>
       <c r="U43" s="43"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="115"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="114"/>
     </row>
     <row r="44" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="120"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="30" t="s">
         <v>3</v>
       </c>
@@ -18060,14 +18066,14 @@
       </c>
       <c r="T44" s="46"/>
       <c r="U44" s="47"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="115"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="114"/>
     </row>
     <row r="45" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="120"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="88"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="31" t="s">
         <v>4</v>
       </c>
@@ -18129,14 +18135,14 @@
       </c>
       <c r="T45" s="46"/>
       <c r="U45" s="47"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="115"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="114"/>
     </row>
     <row r="46" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="121"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="89"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="95"/>
       <c r="E46" s="32" t="s">
         <v>7</v>
       </c>
@@ -18204,16 +18210,16 @@
         <f>SUM(T46/T42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V46" s="89"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="116"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="115"/>
     </row>
     <row r="47" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="126">
+      <c r="B47" s="122">
         <v>-9</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="87"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="9" t="s">
         <v>6</v>
       </c>
@@ -18278,14 +18284,14 @@
         <v>0</v>
       </c>
       <c r="U47" s="39"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="117"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="X47" s="113"/>
     </row>
     <row r="48" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="120"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="88"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="29" t="s">
         <v>142</v>
       </c>
@@ -18333,14 +18339,14 @@
       </c>
       <c r="T48" s="42"/>
       <c r="U48" s="43"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="115"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="114"/>
     </row>
     <row r="49" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="120"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="30" t="s">
         <v>3</v>
       </c>
@@ -18388,14 +18394,14 @@
       </c>
       <c r="T49" s="46"/>
       <c r="U49" s="47"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="115"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="114"/>
     </row>
     <row r="50" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="120"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="88"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="31" t="s">
         <v>4</v>
       </c>
@@ -18457,14 +18463,14 @@
       </c>
       <c r="T50" s="46"/>
       <c r="U50" s="47"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="115"/>
+      <c r="V50" s="94"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="114"/>
     </row>
     <row r="51" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="121"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="89"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="32" t="s">
         <v>7</v>
       </c>
@@ -18532,16 +18538,16 @@
         <f>SUM(T51/T47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V51" s="89"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="116"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="115"/>
     </row>
     <row r="52" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="126">
+      <c r="B52" s="122">
         <v>-10</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="87"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="10" t="s">
         <v>6</v>
       </c>
@@ -18606,14 +18612,14 @@
         <v>0</v>
       </c>
       <c r="U52" s="39"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="101"/>
-      <c r="X52" s="117"/>
+      <c r="V52" s="110"/>
+      <c r="W52" s="110"/>
+      <c r="X52" s="113"/>
     </row>
     <row r="53" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="120"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="88"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="33" t="s">
         <v>142</v>
       </c>
@@ -18633,14 +18639,14 @@
       <c r="S53" s="42"/>
       <c r="T53" s="42"/>
       <c r="U53" s="43"/>
-      <c r="V53" s="102"/>
-      <c r="W53" s="102"/>
-      <c r="X53" s="115"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="111"/>
+      <c r="X53" s="114"/>
     </row>
     <row r="54" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="120"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="88"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="30" t="s">
         <v>3</v>
       </c>
@@ -18660,14 +18666,14 @@
       <c r="S54" s="45"/>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
-      <c r="V54" s="102"/>
-      <c r="W54" s="102"/>
-      <c r="X54" s="115"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="111"/>
+      <c r="X54" s="114"/>
     </row>
     <row r="55" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="120"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="88"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="31" t="s">
         <v>4</v>
       </c>
@@ -18726,14 +18732,14 @@
       </c>
       <c r="T55" s="46"/>
       <c r="U55" s="47"/>
-      <c r="V55" s="102"/>
-      <c r="W55" s="102"/>
-      <c r="X55" s="115"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="114"/>
     </row>
     <row r="56" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="121"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="89"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="35" t="s">
         <v>7</v>
       </c>
@@ -18798,16 +18804,16 @@
         <f>SUM(T56/T52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V56" s="103"/>
-      <c r="W56" s="103"/>
-      <c r="X56" s="116"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="115"/>
     </row>
     <row r="57" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="126">
+      <c r="B57" s="122">
         <v>-11</v>
       </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="87"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="10" t="s">
         <v>6</v>
       </c>
@@ -18872,14 +18878,14 @@
         <v>0</v>
       </c>
       <c r="U57" s="39"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="117"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
+      <c r="X57" s="113"/>
     </row>
     <row r="58" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="120"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="88"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="94"/>
       <c r="E58" s="33" t="s">
         <v>142</v>
       </c>
@@ -18899,14 +18905,14 @@
       <c r="S58" s="42"/>
       <c r="T58" s="42"/>
       <c r="U58" s="43"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
-      <c r="X58" s="115"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
+      <c r="X58" s="114"/>
     </row>
     <row r="59" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="120"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="88"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="94"/>
       <c r="E59" s="30" t="s">
         <v>3</v>
       </c>
@@ -18926,14 +18932,14 @@
       <c r="S59" s="45"/>
       <c r="T59" s="46"/>
       <c r="U59" s="47"/>
-      <c r="V59" s="102"/>
-      <c r="W59" s="102"/>
-      <c r="X59" s="115"/>
+      <c r="V59" s="111"/>
+      <c r="W59" s="111"/>
+      <c r="X59" s="114"/>
     </row>
     <row r="60" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="120"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="88"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="94"/>
       <c r="E60" s="31" t="s">
         <v>4</v>
       </c>
@@ -18995,14 +19001,14 @@
       </c>
       <c r="T60" s="46"/>
       <c r="U60" s="47"/>
-      <c r="V60" s="102"/>
-      <c r="W60" s="102"/>
-      <c r="X60" s="115"/>
+      <c r="V60" s="111"/>
+      <c r="W60" s="111"/>
+      <c r="X60" s="114"/>
     </row>
     <row r="61" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="121"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="89"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="95"/>
       <c r="E61" s="35" t="s">
         <v>7</v>
       </c>
@@ -19070,16 +19076,16 @@
         <f>SUM(T61/T57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V61" s="103"/>
-      <c r="W61" s="103"/>
-      <c r="X61" s="116"/>
+      <c r="V61" s="112"/>
+      <c r="W61" s="112"/>
+      <c r="X61" s="115"/>
     </row>
     <row r="62" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="126">
+      <c r="B62" s="122">
         <v>-12</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="104"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="106"/>
       <c r="E62" s="10" t="s">
         <v>6</v>
       </c>
@@ -19144,14 +19150,14 @@
         <v>0</v>
       </c>
       <c r="U62" s="39"/>
-      <c r="V62" s="101"/>
-      <c r="W62" s="101"/>
-      <c r="X62" s="117"/>
+      <c r="V62" s="110"/>
+      <c r="W62" s="110"/>
+      <c r="X62" s="113"/>
     </row>
     <row r="63" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="120"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="88"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="94"/>
       <c r="E63" s="33" t="s">
         <v>142</v>
       </c>
@@ -19171,14 +19177,14 @@
       <c r="S63" s="42"/>
       <c r="T63" s="42"/>
       <c r="U63" s="43"/>
-      <c r="V63" s="102"/>
-      <c r="W63" s="102"/>
-      <c r="X63" s="115"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="111"/>
+      <c r="X63" s="114"/>
     </row>
     <row r="64" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="120"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="88"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="94"/>
       <c r="E64" s="30" t="s">
         <v>3</v>
       </c>
@@ -19198,14 +19204,14 @@
       <c r="S64" s="45"/>
       <c r="T64" s="46"/>
       <c r="U64" s="47"/>
-      <c r="V64" s="102"/>
-      <c r="W64" s="102"/>
-      <c r="X64" s="115"/>
+      <c r="V64" s="111"/>
+      <c r="W64" s="111"/>
+      <c r="X64" s="114"/>
     </row>
     <row r="65" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="120"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="88"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="94"/>
       <c r="E65" s="31" t="s">
         <v>4</v>
       </c>
@@ -19267,14 +19273,14 @@
       </c>
       <c r="T65" s="46"/>
       <c r="U65" s="47"/>
-      <c r="V65" s="102"/>
-      <c r="W65" s="102"/>
-      <c r="X65" s="115"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="111"/>
+      <c r="X65" s="114"/>
     </row>
     <row r="66" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="121"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="89"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="32" t="s">
         <v>7</v>
       </c>
@@ -19342,16 +19348,16 @@
         <f>SUM(T66/T62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V66" s="103"/>
-      <c r="W66" s="103"/>
-      <c r="X66" s="116"/>
+      <c r="V66" s="112"/>
+      <c r="W66" s="112"/>
+      <c r="X66" s="115"/>
     </row>
     <row r="67" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="126">
+      <c r="B67" s="122">
         <v>-13</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="104"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="106"/>
       <c r="E67" s="10" t="s">
         <v>6</v>
       </c>
@@ -19416,14 +19422,14 @@
         <v>0</v>
       </c>
       <c r="U67" s="39"/>
-      <c r="V67" s="101"/>
-      <c r="W67" s="101"/>
-      <c r="X67" s="117"/>
+      <c r="V67" s="110"/>
+      <c r="W67" s="110"/>
+      <c r="X67" s="113"/>
     </row>
     <row r="68" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="120"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="88"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="94"/>
       <c r="E68" s="33" t="s">
         <v>142</v>
       </c>
@@ -19443,14 +19449,14 @@
       <c r="S68" s="42"/>
       <c r="T68" s="42"/>
       <c r="U68" s="43"/>
-      <c r="V68" s="102"/>
-      <c r="W68" s="102"/>
-      <c r="X68" s="115"/>
+      <c r="V68" s="111"/>
+      <c r="W68" s="111"/>
+      <c r="X68" s="114"/>
     </row>
     <row r="69" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="120"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="88"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="94"/>
       <c r="E69" s="30" t="s">
         <v>3</v>
       </c>
@@ -19470,14 +19476,14 @@
       <c r="S69" s="45"/>
       <c r="T69" s="46"/>
       <c r="U69" s="47"/>
-      <c r="V69" s="102"/>
-      <c r="W69" s="102"/>
-      <c r="X69" s="115"/>
+      <c r="V69" s="111"/>
+      <c r="W69" s="111"/>
+      <c r="X69" s="114"/>
     </row>
     <row r="70" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="120"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="88"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="94"/>
       <c r="E70" s="31" t="s">
         <v>4</v>
       </c>
@@ -19539,14 +19545,14 @@
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
-      <c r="V70" s="102"/>
-      <c r="W70" s="102"/>
-      <c r="X70" s="115"/>
+      <c r="V70" s="111"/>
+      <c r="W70" s="111"/>
+      <c r="X70" s="114"/>
     </row>
     <row r="71" spans="2:24" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="121"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="89"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="95"/>
       <c r="E71" s="32" t="s">
         <v>7</v>
       </c>
@@ -19614,18 +19620,13 @@
         <f>SUM(T71/T67)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V71" s="103"/>
-      <c r="W71" s="103"/>
-      <c r="X71" s="116"/>
+      <c r="V71" s="112"/>
+      <c r="W71" s="112"/>
+      <c r="X71" s="115"/>
     </row>
     <row r="72" spans="2:24" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="V67:V71"/>
-    <mergeCell ref="W67:W71"/>
     <mergeCell ref="X67:X71"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="C62:C66"/>
@@ -19633,11 +19634,11 @@
     <mergeCell ref="V62:V66"/>
     <mergeCell ref="W62:W66"/>
     <mergeCell ref="X62:X66"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="V57:V61"/>
-    <mergeCell ref="W57:W61"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="V67:V71"/>
+    <mergeCell ref="W67:W71"/>
     <mergeCell ref="X57:X61"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="C52:C56"/>
@@ -19645,11 +19646,11 @@
     <mergeCell ref="V52:V56"/>
     <mergeCell ref="W52:W56"/>
     <mergeCell ref="X52:X56"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="V47:V51"/>
-    <mergeCell ref="W47:W51"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="V57:V61"/>
+    <mergeCell ref="W57:W61"/>
     <mergeCell ref="X47:X51"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
@@ -19657,11 +19658,11 @@
     <mergeCell ref="V42:V46"/>
     <mergeCell ref="W42:W46"/>
     <mergeCell ref="X42:X46"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="V37:V41"/>
-    <mergeCell ref="W37:W41"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="V47:V51"/>
+    <mergeCell ref="W47:W51"/>
     <mergeCell ref="X37:X41"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C32:C36"/>
@@ -19669,11 +19670,11 @@
     <mergeCell ref="V32:V36"/>
     <mergeCell ref="W32:W36"/>
     <mergeCell ref="X32:X36"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="V27:V31"/>
-    <mergeCell ref="W27:W31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="V37:V41"/>
+    <mergeCell ref="W37:W41"/>
     <mergeCell ref="X27:X31"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:C26"/>
@@ -19681,11 +19682,11 @@
     <mergeCell ref="V22:V26"/>
     <mergeCell ref="W22:W26"/>
     <mergeCell ref="X22:X26"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="V17:V21"/>
-    <mergeCell ref="W17:W21"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="V27:V31"/>
+    <mergeCell ref="W27:W31"/>
     <mergeCell ref="X17:X21"/>
     <mergeCell ref="X7:X11"/>
     <mergeCell ref="B12:B16"/>
@@ -19694,6 +19695,11 @@
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="W12:W16"/>
     <mergeCell ref="X12:X16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="V17:V21"/>
+    <mergeCell ref="W17:W21"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="W5:W6"/>
@@ -19731,53 +19737,53 @@
   <sheetData>
     <row r="4" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="139" t="s">
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="128" t="s">
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="128" t="s">
+      <c r="U5" s="120" t="s">
         <v>9</v>
       </c>
       <c r="V5" s="27"/>
-      <c r="W5" s="128" t="s">
+      <c r="W5" s="120" t="s">
         <v>42</v>
       </c>
       <c r="X5" s="28"/>
     </row>
     <row r="6" spans="2:24" ht="116.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="143"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="134"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="25" t="s">
         <v>61</v>
       </c>
@@ -19820,24 +19826,24 @@
       <c r="S6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
       <c r="V6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="129"/>
+      <c r="W6" s="121"/>
       <c r="X6" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="126">
+      <c r="B7" s="122">
         <v>-1</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="96" t="s">
         <v>143</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -19904,14 +19910,14 @@
         <v>25</v>
       </c>
       <c r="U7" s="39"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="124"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="137"/>
     </row>
     <row r="8" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="29" t="s">
         <v>142</v>
       </c>
@@ -19959,14 +19965,14 @@
       </c>
       <c r="T8" s="42"/>
       <c r="U8" s="43"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="115"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="30" t="s">
         <v>3</v>
       </c>
@@ -20014,14 +20020,14 @@
       </c>
       <c r="T9" s="46"/>
       <c r="U9" s="47"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="115"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="114"/>
     </row>
     <row r="10" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="88"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="31" t="s">
         <v>4</v>
       </c>
@@ -20083,14 +20089,14 @@
       </c>
       <c r="T10" s="46"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="115"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="114"/>
     </row>
     <row r="11" spans="2:24" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="32" t="s">
         <v>7</v>
       </c>
@@ -20158,18 +20164,18 @@
         <f>SUM(T11/T7)</f>
         <v>65.680000000000007</v>
       </c>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="116"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="115"/>
     </row>
     <row r="12" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="119">
+      <c r="B12" s="138">
         <v>-2</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="94" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -20236,14 +20242,14 @@
         <v>12</v>
       </c>
       <c r="U12" s="39"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="124"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="137"/>
     </row>
     <row r="13" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="120"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="88"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="29" t="s">
         <v>142</v>
       </c>
@@ -20291,14 +20297,14 @@
       </c>
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="115"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="114"/>
     </row>
     <row r="14" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="120"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
@@ -20346,14 +20352,14 @@
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="115"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="114"/>
     </row>
     <row r="15" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="31" t="s">
         <v>4</v>
       </c>
@@ -20415,14 +20421,14 @@
       </c>
       <c r="T15" s="46"/>
       <c r="U15" s="47"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="115"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="114"/>
     </row>
     <row r="16" spans="2:24" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="120"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="32" t="s">
         <v>7</v>
       </c>
@@ -20490,18 +20496,18 @@
         <f>SUM(T16/T12)</f>
         <v>35.5</v>
       </c>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="116"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="115"/>
     </row>
     <row r="17" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="126">
+      <c r="B17" s="122">
         <v>-3</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="94" t="s">
         <v>145</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -20568,14 +20574,14 @@
         <v>12</v>
       </c>
       <c r="U17" s="39"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="124"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="137"/>
     </row>
     <row r="18" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="33" t="s">
         <v>142</v>
       </c>
@@ -20623,14 +20629,14 @@
       </c>
       <c r="T18" s="42"/>
       <c r="U18" s="43"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="115"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="114"/>
     </row>
     <row r="19" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="30" t="s">
         <v>3</v>
       </c>
@@ -20678,14 +20684,14 @@
       </c>
       <c r="T19" s="46"/>
       <c r="U19" s="47"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="115"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="114"/>
     </row>
     <row r="20" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="88"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="31" t="s">
         <v>4</v>
       </c>
@@ -20747,14 +20753,14 @@
       </c>
       <c r="T20" s="46"/>
       <c r="U20" s="47"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="115"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="114"/>
     </row>
     <row r="21" spans="2:24" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="125"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="89"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="35" t="s">
         <v>7</v>
       </c>
@@ -20822,18 +20828,18 @@
         <f>SUM(T21/T17)</f>
         <v>35.5</v>
       </c>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="116"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="115"/>
     </row>
     <row r="22" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="122">
+      <c r="B22" s="141">
         <v>-4</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="94" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -20900,14 +20906,14 @@
         <v>12</v>
       </c>
       <c r="U22" s="39"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="124"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="137"/>
     </row>
     <row r="23" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="33" t="s">
         <v>142</v>
       </c>
@@ -20955,14 +20961,14 @@
       </c>
       <c r="T23" s="42"/>
       <c r="U23" s="43"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="115"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="114"/>
     </row>
     <row r="24" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="30" t="s">
         <v>3</v>
       </c>
@@ -21010,14 +21016,14 @@
       </c>
       <c r="T24" s="46"/>
       <c r="U24" s="47"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="115"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="114"/>
     </row>
     <row r="25" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="31" t="s">
         <v>4</v>
       </c>
@@ -21079,14 +21085,14 @@
       </c>
       <c r="T25" s="46"/>
       <c r="U25" s="47"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="115"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="114"/>
     </row>
     <row r="26" spans="2:24" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="125"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="89"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="35" t="s">
         <v>7</v>
       </c>
@@ -21154,18 +21160,18 @@
         <f>SUM(T26/T22)</f>
         <v>34.166666666666664</v>
       </c>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="116"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="115"/>
     </row>
     <row r="27" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="122">
+      <c r="B27" s="141">
         <v>-5</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="96" t="s">
         <v>147</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -21232,14 +21238,14 @@
         <v>15</v>
       </c>
       <c r="U27" s="39"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="124"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="137"/>
     </row>
     <row r="28" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="120"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="88"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="33" t="s">
         <v>142</v>
       </c>
@@ -21287,14 +21293,14 @@
       </c>
       <c r="T28" s="42"/>
       <c r="U28" s="43"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="115"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="114"/>
     </row>
     <row r="29" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="120"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="88"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
@@ -21342,14 +21348,14 @@
       </c>
       <c r="T29" s="46"/>
       <c r="U29" s="47"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="115"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="114"/>
     </row>
     <row r="30" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="120"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="88"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="31" t="s">
         <v>4</v>
       </c>
@@ -21411,14 +21417,14 @@
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="115"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="114"/>
     </row>
     <row r="31" spans="2:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="89"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="32" t="s">
         <v>7</v>
       </c>
@@ -21486,16 +21492,16 @@
         <f>SUM(T31/T27)</f>
         <v>31.133333333333333</v>
       </c>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="116"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="115"/>
     </row>
     <row r="32" spans="2:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="119">
+      <c r="B32" s="138">
         <v>-6</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="87"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="10" t="s">
         <v>6</v>
       </c>
@@ -21560,14 +21566,14 @@
         <v>0</v>
       </c>
       <c r="U32" s="39"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="124"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="137"/>
     </row>
     <row r="33" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="120"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="33" t="s">
         <v>142</v>
       </c>
@@ -21615,14 +21621,14 @@
       </c>
       <c r="T33" s="42"/>
       <c r="U33" s="43"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="115"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="114"/>
     </row>
     <row r="34" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="88"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="30" t="s">
         <v>3</v>
       </c>
@@ -21670,14 +21676,14 @@
       </c>
       <c r="T34" s="46"/>
       <c r="U34" s="47"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="115"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="114"/>
     </row>
     <row r="35" spans="2:24" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="120"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="88"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="31" t="s">
         <v>4</v>
       </c>
@@ -21739,14 +21745,14 @@
       </c>
       <c r="T35" s="46"/>
       <c r="U35" s="47"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="115"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="114"/>
     </row>
     <row r="36" spans="2:24" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="121"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="32" t="s">
         <v>7</v>
       </c>
@@ -21814,18 +21820,13 @@
         <f>SUM(T36/T32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="116"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="115"/>
     </row>
     <row r="37" spans="2:24" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="V32:V36"/>
-    <mergeCell ref="W32:W36"/>
     <mergeCell ref="X32:X36"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C27:C31"/>
@@ -21833,11 +21834,11 @@
     <mergeCell ref="V27:V31"/>
     <mergeCell ref="W27:W31"/>
     <mergeCell ref="X27:X31"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="W22:W26"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="V32:V36"/>
+    <mergeCell ref="W32:W36"/>
     <mergeCell ref="X22:X26"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C21"/>
@@ -21845,6 +21846,11 @@
     <mergeCell ref="V17:V21"/>
     <mergeCell ref="W17:W21"/>
     <mergeCell ref="X17:X21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="W22:W26"/>
     <mergeCell ref="X7:X11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
@@ -21876,7 +21882,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A3C764-9671-4C57-A699-1380216B5F22}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8815262E-3B4A-4811-931A-DD0CCD4386EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
